--- a/sorties/data_us.xlsx
+++ b/sorties/data_us.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="700">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -26,796 +26,2092 @@
     <t xml:space="preserve">ffr</t>
   </si>
   <si>
+    <t xml:space="preserve">1949 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.263132382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1949 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.503240704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1949 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.92793816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1949 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.055475327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1950 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.445074955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1950 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.221279876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1950 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.765773008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1950 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.385376298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1951 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.45451488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1951 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.924107001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1951 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.679260272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1951 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.464030782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1952 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.075692413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1952 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.715255219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1952 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.962996387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1952 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.866190326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1953 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.542806293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1953 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.274829937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1953 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.811021558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1953 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.464953278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1954 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.605345201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1954 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.098811037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1954 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.5703806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1954 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.253993087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1955 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.981529227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1955 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.980015389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1955 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.721463592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1955 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.674786268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1956 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.610155066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1956 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.821012915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1956 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.072049063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1956 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.046723066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1957 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.932711629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1957 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.877224909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1957 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.998448029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1957 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.051267345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1958 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.397523179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1958 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.618252174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1958 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.253362966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1958 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.890169777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1959 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.058254814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1959 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.297060047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1959 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.301055441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1959 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.476764422</t>
+  </si>
+  <si>
     <t xml:space="preserve">1960 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.683430668</t>
+  </si>
+  <si>
     <t xml:space="preserve">1960 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.883661174</t>
+  </si>
+  <si>
     <t xml:space="preserve">1960 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.388152814</t>
+  </si>
+  <si>
     <t xml:space="preserve">1960 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.578339881</t>
+  </si>
+  <si>
     <t xml:space="preserve">1961 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.825830149</t>
+  </si>
+  <si>
     <t xml:space="preserve">1961 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.038780233</t>
+  </si>
+  <si>
     <t xml:space="preserve">1961 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.05146997</t>
+  </si>
+  <si>
     <t xml:space="preserve">1961 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.034293706</t>
+  </si>
+  <si>
     <t xml:space="preserve">1962 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.241869551</t>
+  </si>
+  <si>
     <t xml:space="preserve">1962 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.381345388</t>
+  </si>
+  <si>
     <t xml:space="preserve">1962 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.249665309</t>
+  </si>
+  <si>
     <t xml:space="preserve">1962 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.026918418</t>
+  </si>
+  <si>
     <t xml:space="preserve">1963 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.038163792</t>
+  </si>
+  <si>
     <t xml:space="preserve">1963 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.99898832</t>
+  </si>
+  <si>
     <t xml:space="preserve">1963 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.110648889</t>
+  </si>
+  <si>
     <t xml:space="preserve">1963 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.29918499</t>
+  </si>
+  <si>
     <t xml:space="preserve">1964 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.735954781</t>
+  </si>
+  <si>
     <t xml:space="preserve">1964 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.736068644</t>
+  </si>
+  <si>
     <t xml:space="preserve">1964 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.197458207</t>
+  </si>
+  <si>
     <t xml:space="preserve">1964 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.410680024</t>
+  </si>
+  <si>
     <t xml:space="preserve">1965 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.713110849</t>
+  </si>
+  <si>
     <t xml:space="preserve">1965 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.907325227</t>
+  </si>
+  <si>
     <t xml:space="preserve">1965 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">3.047763606</t>
+  </si>
+  <si>
     <t xml:space="preserve">1965 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">4.292820198</t>
+  </si>
+  <si>
     <t xml:space="preserve">1966 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">5.684079426</t>
+  </si>
+  <si>
     <t xml:space="preserve">1966 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">4.910766368</t>
+  </si>
+  <si>
     <t xml:space="preserve">1966 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">4.663364573</t>
+  </si>
+  <si>
     <t xml:space="preserve">1966 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">4.391103044</t>
+  </si>
+  <si>
     <t xml:space="preserve">1967 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">4.161837945</t>
+  </si>
+  <si>
     <t xml:space="preserve">1967 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">3.060701082</t>
+  </si>
+  <si>
     <t xml:space="preserve">1967 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">2.859319594</t>
+  </si>
+  <si>
     <t xml:space="preserve">1967 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">2.448295772</t>
+  </si>
+  <si>
     <t xml:space="preserve">1968 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">3.352612034</t>
+  </si>
+  <si>
     <t xml:space="preserve">1968 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">3.915399474</t>
+  </si>
+  <si>
     <t xml:space="preserve">1968 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">3.566030013</t>
+  </si>
+  <si>
     <t xml:space="preserve">1968 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">2.83171086</t>
+  </si>
+  <si>
     <t xml:space="preserve">1969 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">3.341859945</t>
+  </si>
+  <si>
     <t xml:space="preserve">1969 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">2.612765878</t>
+  </si>
+  <si>
     <t xml:space="preserve">1969 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">2.329436222</t>
+  </si>
+  <si>
     <t xml:space="preserve">1969 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.913019283</t>
+  </si>
+  <si>
     <t xml:space="preserve">1970 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.099371058</t>
+  </si>
+  <si>
     <t xml:space="preserve">1970 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.765357613</t>
+  </si>
+  <si>
     <t xml:space="preserve">1970 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.631174159</t>
+  </si>
+  <si>
     <t xml:space="preserve">1970 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.451048274</t>
+  </si>
+  <si>
     <t xml:space="preserve">1971 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.594154579</t>
+  </si>
+  <si>
     <t xml:space="preserve">1971 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.886720161</t>
+  </si>
+  <si>
     <t xml:space="preserve">1971 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.923463906</t>
+  </si>
+  <si>
     <t xml:space="preserve">1971 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.53411604</t>
+  </si>
+  <si>
     <t xml:space="preserve">1972 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.549244823</t>
+  </si>
+  <si>
     <t xml:space="preserve">1972 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.917246635</t>
+  </si>
+  <si>
     <t xml:space="preserve">1972 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.104068924</t>
+  </si>
+  <si>
     <t xml:space="preserve">1972 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">2.02530311</t>
+  </si>
+  <si>
     <t xml:space="preserve">1973 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">3.750048796</t>
+  </si>
+  <si>
     <t xml:space="preserve">1973 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">4.028586739</t>
+  </si>
+  <si>
     <t xml:space="preserve">1973 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">2.620469792</t>
+  </si>
+  <si>
     <t xml:space="preserve">1973 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">2.711004913</t>
+  </si>
+  <si>
     <t xml:space="preserve">1974 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.954609821</t>
+  </si>
+  <si>
     <t xml:space="preserve">1974 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.328082624</t>
+  </si>
+  <si>
     <t xml:space="preserve">1974 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.451623425</t>
+  </si>
+  <si>
     <t xml:space="preserve">1974 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.638875464</t>
+  </si>
+  <si>
     <t xml:space="preserve">1975 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.591656567</t>
+  </si>
+  <si>
     <t xml:space="preserve">1975 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.659422521</t>
+  </si>
+  <si>
     <t xml:space="preserve">1975 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.773385943</t>
+  </si>
+  <si>
     <t xml:space="preserve">1975 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.219358852</t>
+  </si>
+  <si>
     <t xml:space="preserve">1976 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.779903263</t>
+  </si>
+  <si>
     <t xml:space="preserve">1976 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.792567692</t>
+  </si>
+  <si>
     <t xml:space="preserve">1976 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.997230041</t>
+  </si>
+  <si>
     <t xml:space="preserve">1976 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.035236284</t>
+  </si>
+  <si>
     <t xml:space="preserve">1977 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.646889505</t>
+  </si>
+  <si>
     <t xml:space="preserve">1977 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.537764183</t>
+  </si>
+  <si>
     <t xml:space="preserve">1977 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.435056663</t>
+  </si>
+  <si>
     <t xml:space="preserve">1977 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.39655109</t>
+  </si>
+  <si>
     <t xml:space="preserve">1978 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.920079314</t>
+  </si>
+  <si>
     <t xml:space="preserve">1978 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">2.03351834</t>
+  </si>
+  <si>
     <t xml:space="preserve">1978 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">2.168632399</t>
+  </si>
+  <si>
     <t xml:space="preserve">1978 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">2.635874158</t>
+  </si>
+  <si>
     <t xml:space="preserve">1979 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.895654264</t>
+  </si>
+  <si>
     <t xml:space="preserve">1979 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.124984964</t>
+  </si>
+  <si>
     <t xml:space="preserve">1979 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.052526544</t>
+  </si>
+  <si>
     <t xml:space="preserve">1979 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.554529699</t>
+  </si>
+  <si>
     <t xml:space="preserve">1980 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.207549415</t>
+  </si>
+  <si>
     <t xml:space="preserve">1980 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.41171683</t>
+  </si>
+  <si>
     <t xml:space="preserve">1980 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.9909132</t>
+  </si>
+  <si>
     <t xml:space="preserve">1980 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.673370677</t>
+  </si>
+  <si>
     <t xml:space="preserve">1981 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.067540663</t>
+  </si>
+  <si>
     <t xml:space="preserve">1981 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.428590733</t>
+  </si>
+  <si>
     <t xml:space="preserve">1981 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.911800315</t>
+  </si>
+  <si>
     <t xml:space="preserve">1981 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.680481181</t>
+  </si>
+  <si>
     <t xml:space="preserve">1982 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.892959564</t>
+  </si>
+  <si>
     <t xml:space="preserve">1982 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-5.173533073</t>
+  </si>
+  <si>
     <t xml:space="preserve">1982 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-6.255185222</t>
+  </si>
+  <si>
     <t xml:space="preserve">1982 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-6.944728256</t>
+  </si>
+  <si>
     <t xml:space="preserve">1983 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-6.440672742</t>
+  </si>
+  <si>
     <t xml:space="preserve">1983 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-5.056253825</t>
+  </si>
+  <si>
     <t xml:space="preserve">1983 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.928460887</t>
+  </si>
+  <si>
     <t xml:space="preserve">1983 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.727589944</t>
+  </si>
+  <si>
     <t xml:space="preserve">1984 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.664807595</t>
+  </si>
+  <si>
     <t xml:space="preserve">1984 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.83439385</t>
+  </si>
+  <si>
     <t xml:space="preserve">1984 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.761190304</t>
+  </si>
+  <si>
     <t xml:space="preserve">1984 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.836166373</t>
+  </si>
+  <si>
     <t xml:space="preserve">1985 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.761852198</t>
+  </si>
+  <si>
     <t xml:space="preserve">1985 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.768339079</t>
+  </si>
+  <si>
     <t xml:space="preserve">1985 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.1292927</t>
+  </si>
+  <si>
     <t xml:space="preserve">1985 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.247206208</t>
+  </si>
+  <si>
     <t xml:space="preserve">1986 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.160549393</t>
+  </si>
+  <si>
     <t xml:space="preserve">1986 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.536485816</t>
+  </si>
+  <si>
     <t xml:space="preserve">1986 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.39976789</t>
+  </si>
+  <si>
     <t xml:space="preserve">1986 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.675136211</t>
+  </si>
+  <si>
     <t xml:space="preserve">1987 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.739338734</t>
+  </si>
+  <si>
     <t xml:space="preserve">1987 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.463757531</t>
+  </si>
+  <si>
     <t xml:space="preserve">1987 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.388901051</t>
+  </si>
+  <si>
     <t xml:space="preserve">1987 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.526385093</t>
+  </si>
+  <si>
     <t xml:space="preserve">1988 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.260709549</t>
+  </si>
+  <si>
     <t xml:space="preserve">1988 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.788916992</t>
+  </si>
+  <si>
     <t xml:space="preserve">1988 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.595466696</t>
+  </si>
+  <si>
     <t xml:space="preserve">1988 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">1.148309297</t>
+  </si>
+  <si>
     <t xml:space="preserve">1989 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.390846055</t>
+  </si>
+  <si>
     <t xml:space="preserve">1989 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.384260865</t>
+  </si>
+  <si>
     <t xml:space="preserve">1989 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.360506833</t>
+  </si>
+  <si>
     <t xml:space="preserve">1989 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.799071971</t>
+  </si>
+  <si>
     <t xml:space="preserve">1990 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.150080377</t>
+  </si>
+  <si>
     <t xml:space="preserve">1990 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.786681652</t>
+  </si>
+  <si>
     <t xml:space="preserve">1990 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.151340315</t>
+  </si>
+  <si>
     <t xml:space="preserve">1990 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.428555722</t>
+  </si>
+  <si>
     <t xml:space="preserve">1991 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.530909498</t>
+  </si>
+  <si>
     <t xml:space="preserve">1991 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.39294535</t>
+  </si>
+  <si>
     <t xml:space="preserve">1991 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.506930955</t>
+  </si>
+  <si>
     <t xml:space="preserve">1991 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.769689491</t>
+  </si>
+  <si>
     <t xml:space="preserve">1992 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.208087167</t>
+  </si>
+  <si>
     <t xml:space="preserve">1992 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.75650141</t>
+  </si>
+  <si>
     <t xml:space="preserve">1992 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.405061239</t>
+  </si>
+  <si>
     <t xml:space="preserve">1992 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.004929059</t>
+  </si>
+  <si>
     <t xml:space="preserve">1993 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.468797882</t>
+  </si>
+  <si>
     <t xml:space="preserve">1993 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.538469328</t>
+  </si>
+  <si>
     <t xml:space="preserve">1993 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.715487258</t>
+  </si>
+  <si>
     <t xml:space="preserve">1993 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.036088599</t>
+  </si>
+  <si>
     <t xml:space="preserve">1994 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.740689744</t>
+  </si>
+  <si>
     <t xml:space="preserve">1994 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.067659788</t>
+  </si>
+  <si>
     <t xml:space="preserve">1994 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.166027087</t>
+  </si>
+  <si>
     <t xml:space="preserve">1994 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.284422572</t>
+  </si>
+  <si>
     <t xml:space="preserve">1995 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.052428867</t>
+  </si>
+  <si>
     <t xml:space="preserve">1995 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.453527765</t>
+  </si>
+  <si>
     <t xml:space="preserve">1995 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.309658711</t>
+  </si>
+  <si>
     <t xml:space="preserve">1995 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.348895906</t>
+  </si>
+  <si>
     <t xml:space="preserve">1996 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.330059435</t>
+  </si>
+  <si>
     <t xml:space="preserve">1996 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.558124581</t>
+  </si>
+  <si>
     <t xml:space="preserve">1996 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.636376645</t>
+  </si>
+  <si>
     <t xml:space="preserve">1996 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.808495159</t>
+  </si>
+  <si>
     <t xml:space="preserve">1997 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.545129576</t>
+  </si>
+  <si>
     <t xml:space="preserve">1997 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.262914835</t>
+  </si>
+  <si>
     <t xml:space="preserve">1997 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.531091128</t>
+  </si>
+  <si>
     <t xml:space="preserve">1997 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">1.377668097</t>
+  </si>
+  <si>
     <t xml:space="preserve">1998 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.353992024</t>
+  </si>
+  <si>
     <t xml:space="preserve">1998 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.230969045</t>
+  </si>
+  <si>
     <t xml:space="preserve">1998 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.434356034</t>
+  </si>
+  <si>
     <t xml:space="preserve">1998 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">1.979535055</t>
+  </si>
+  <si>
     <t xml:space="preserve">1999 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.8420965</t>
+  </si>
+  <si>
     <t xml:space="preserve">1999 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.596705499</t>
+  </si>
+  <si>
     <t xml:space="preserve">1999 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.844066286</t>
+  </si>
+  <si>
     <t xml:space="preserve">1999 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">2.40275086</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.671123622</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">2.451753309</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.54921546</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">1.212313615</t>
+  </si>
+  <si>
     <t xml:space="preserve">2001 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.005027363</t>
+  </si>
+  <si>
     <t xml:space="preserve">2001 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.18741485</t>
+  </si>
+  <si>
     <t xml:space="preserve">2001 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.340985134</t>
+  </si>
+  <si>
     <t xml:space="preserve">2001 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.773387142</t>
+  </si>
+  <si>
     <t xml:space="preserve">2002 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.615039377</t>
+  </si>
+  <si>
     <t xml:space="preserve">2002 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.646591849</t>
+  </si>
+  <si>
     <t xml:space="preserve">2002 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.862356841</t>
+  </si>
+  <si>
     <t xml:space="preserve">2002 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.341610339</t>
+  </si>
+  <si>
     <t xml:space="preserve">2003 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.424344845</t>
+  </si>
+  <si>
     <t xml:space="preserve">2003 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.159572132</t>
+  </si>
+  <si>
     <t xml:space="preserve">2003 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.135894038</t>
+  </si>
+  <si>
     <t xml:space="preserve">2003 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.60005517</t>
+  </si>
+  <si>
     <t xml:space="preserve">2004 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.655848446</t>
+  </si>
+  <si>
     <t xml:space="preserve">2004 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.510557512</t>
+  </si>
+  <si>
     <t xml:space="preserve">2004 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.202620989</t>
+  </si>
+  <si>
     <t xml:space="preserve">2004 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.175796552</t>
+  </si>
+  <si>
     <t xml:space="preserve">2005 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.662868642</t>
+  </si>
+  <si>
     <t xml:space="preserve">2005 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.560905197</t>
+  </si>
+  <si>
     <t xml:space="preserve">2005 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.766796365</t>
+  </si>
+  <si>
     <t xml:space="preserve">2005 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.76514609</t>
+  </si>
+  <si>
     <t xml:space="preserve">2006 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.578856789</t>
+  </si>
+  <si>
     <t xml:space="preserve">2006 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.31965946</t>
+  </si>
+  <si>
     <t xml:space="preserve">2006 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.97827949</t>
+  </si>
+  <si>
     <t xml:space="preserve">2006 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">1.380457478</t>
+  </si>
+  <si>
     <t xml:space="preserve">2007 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.21010677</t>
+  </si>
+  <si>
     <t xml:space="preserve">2007 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.336866345</t>
+  </si>
+  <si>
     <t xml:space="preserve">2007 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.413174502</t>
+  </si>
+  <si>
     <t xml:space="preserve">2007 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">1.542408265</t>
+  </si>
+  <si>
     <t xml:space="preserve">2008 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.60426164</t>
+  </si>
+  <si>
     <t xml:space="preserve">2008 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.709055378</t>
+  </si>
+  <si>
     <t xml:space="preserve">2008 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.292546447</t>
+  </si>
+  <si>
     <t xml:space="preserve">2008 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.911279841</t>
+  </si>
+  <si>
     <t xml:space="preserve">2009 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.410107438</t>
+  </si>
+  <si>
     <t xml:space="preserve">2009 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.950654792</t>
+  </si>
+  <si>
     <t xml:space="preserve">2009 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.963453877</t>
+  </si>
+  <si>
     <t xml:space="preserve">2009 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.273499715</t>
+  </si>
+  <si>
     <t xml:space="preserve">2010 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-4.147861438</t>
+  </si>
+  <si>
     <t xml:space="preserve">2010 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.565061852</t>
+  </si>
+  <si>
     <t xml:space="preserve">2010 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.180246632</t>
+  </si>
+  <si>
     <t xml:space="preserve">2010 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.039222854</t>
+  </si>
+  <si>
     <t xml:space="preserve">2011 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.643949022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2011 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.376866958</t>
+  </si>
+  <si>
     <t xml:space="preserve">2011 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.791945377</t>
+  </si>
+  <si>
     <t xml:space="preserve">2011 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.114758145</t>
+  </si>
+  <si>
     <t xml:space="preserve">2012 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.714322425</t>
+  </si>
+  <si>
     <t xml:space="preserve">2012 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.701697958</t>
+  </si>
+  <si>
     <t xml:space="preserve">2012 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.988067106</t>
+  </si>
+  <si>
     <t xml:space="preserve">2012 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.306761941</t>
+  </si>
+  <si>
     <t xml:space="preserve">2013 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.794566833</t>
+  </si>
+  <si>
     <t xml:space="preserve">2013 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.979301156</t>
+  </si>
+  <si>
     <t xml:space="preserve">2013 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.601752842</t>
+  </si>
+  <si>
     <t xml:space="preserve">2013 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.208191985</t>
+  </si>
+  <si>
     <t xml:space="preserve">2014 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-3.000862864</t>
+  </si>
+  <si>
     <t xml:space="preserve">2014 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.211028239</t>
+  </si>
+  <si>
     <t xml:space="preserve">2014 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.497776592</t>
+  </si>
+  <si>
     <t xml:space="preserve">2014 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.479021213</t>
+  </si>
+  <si>
     <t xml:space="preserve">2015 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.076720162</t>
+  </si>
+  <si>
     <t xml:space="preserve">2015 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.953520543</t>
+  </si>
+  <si>
     <t xml:space="preserve">2015 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.046544699</t>
+  </si>
+  <si>
     <t xml:space="preserve">2015 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.351206796</t>
+  </si>
+  <si>
     <t xml:space="preserve">2016 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.265363926</t>
+  </si>
+  <si>
     <t xml:space="preserve">2016 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.432511457</t>
+  </si>
+  <si>
     <t xml:space="preserve">2016 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.215198035</t>
+  </si>
+  <si>
     <t xml:space="preserve">2016 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.145316285</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.140912668</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.065998656</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.775702627</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.160024007</t>
+  </si>
+  <si>
     <t xml:space="preserve">2018 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.137670293</t>
+  </si>
+  <si>
     <t xml:space="preserve">2018 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.14327148</t>
+  </si>
+  <si>
     <t xml:space="preserve">2018 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.237640939</t>
+  </si>
+  <si>
     <t xml:space="preserve">2018 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.148505443</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.055926328</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.249062271</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.892121692</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">1.066369796</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.83420996</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">-9.126292032</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">-2.481817222</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.901502132</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">-1.030671176</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.028535166</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.364680516</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">1.639905204</t>
+  </si>
+  <si>
     <t xml:space="preserve">2022 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.837284759</t>
+  </si>
+  <si>
     <t xml:space="preserve">2022 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.360034811</t>
+  </si>
+  <si>
     <t xml:space="preserve">2022 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">0.479314949</t>
+  </si>
+  <si>
     <t xml:space="preserve">2022 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">0.74518993</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">0.878761384</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">0.923685025</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.429933358</t>
+  </si>
+  <si>
     <t xml:space="preserve">2023 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">1.648717739</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.476221855</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.636902092</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.763954377</t>
+  </si>
+  <si>
     <t xml:space="preserve">2024 Q4</t>
   </si>
   <si>
+    <t xml:space="preserve">1.671372463</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025 Q1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.601413229</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">1.532165159</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025 Q3</t>
   </si>
   <si>
+    <t xml:space="preserve">1.42559521</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.283378086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.170071437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.072230444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.951910829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.830486605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.731298722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.605878383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.487347002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.397609245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.309392888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.190675481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.091012396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008716921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.061214611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.126348531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.188560286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.246269755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2030 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.28853998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2030 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.316449614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2030 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.365974192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2030 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.399078055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2031 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.427549557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2031 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.450626568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2031 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.468125618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2031 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.48105743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2032 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.490859763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2032 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.497361479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2032 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499687833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2032 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499834085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2033 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499931376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2033 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499961664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2033 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499955326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2033 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499986676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2034 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499987093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2034 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499991969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2034 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499999645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2034 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499973995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2035 Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.49998221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2035 Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499987899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2035 Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499994587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2035 Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.499969747</t>
   </si>
 </sst>
 </file>
@@ -1165,3687 +2461,4531 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>3.31893258782987</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2"/>
-      <c r="D2" t="n">
-        <v>3.93333333333333</v>
-      </c>
+      <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.60957478104056</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.00987268400861</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.69666666666667</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.926689269708092</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.36831707962788</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.93666666666667</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-1.54152025639291</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.1838135128496</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.29666666666667</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-2.05435962659557</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.872746287317838</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.00333333333333</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-1.56785688547476</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.922013470086824</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.73333333333333</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.875719153494003</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.02197296267068</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.68333333333333</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.156418486551857</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.24836889964772</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.374908642167071</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.05512487851163</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.45666666666667</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.0259528503530504</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.657437406992578</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.60666666666667</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.0146677984867338</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.832886693957668</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.84666666666667</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.961582161277974</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.831156046304748</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.92333333333333</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-1.16430067603428</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.73231088265737</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.96666666666667</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-1.34956862962134</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.700832417566843</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.96333333333333</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.487234290619121</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.524819668553356</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.15523955047454</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.23364735998357</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.45333333333333</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-0.396869033638936</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.26147957257441</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.46333333333333</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.645584531463683</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.91270737388971</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.49</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.427022552209344</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.59837915940475</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.45666666666667</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-1.44650399490835</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.81195216794379</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.57666666666667</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.375757283428513</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.99829829517917</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.97666666666667</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.427704554964059</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.84320947022876</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.08</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.481671321128196</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.54561564042517</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.07666666666667</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1.49356646998609</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2.73842049602724</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4.16666666666667</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="n">
-        <v>2.661147540827</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2.55332708903566</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4.56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26"/>
+      <c r="D26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1.79794731127636</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.26919202064744</v>
-      </c>
-      <c r="D27" t="n">
-        <v>4.91333333333333</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1.47274194801916</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.85069890928165</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5.41</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1.15841597543671</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3.3276319780537</v>
-      </c>
-      <c r="D29" t="n">
-        <v>5.56333333333333</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.946569790780316</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.66503102184841</v>
-      </c>
-      <c r="D30" t="n">
-        <v>4.82333333333333</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.0483649198823599</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2.0256704395397</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3.99</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.126294166548035</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3.81619050421644</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3.89333333333333</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.358849156600627</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.43293013733275</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.17333333333333</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.711649638886591</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4.40658727504211</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4.79</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1.45486211006656</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4.20450872696758</v>
-      </c>
-      <c r="D35" t="n">
-        <v>5.98333333333333</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35"/>
+      <c r="D35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1.34705377627107</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3.89926417435866</v>
-      </c>
-      <c r="D36" t="n">
-        <v>5.94666666666667</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36"/>
+      <c r="D36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.891952714207811</v>
-      </c>
-      <c r="C37" t="n">
-        <v>5.60660746939696</v>
-      </c>
-      <c r="D37" t="n">
-        <v>5.91666666666667</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37"/>
+      <c r="D37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1.6267784124965</v>
-      </c>
-      <c r="C38" t="n">
-        <v>4.10610962383799</v>
-      </c>
-      <c r="D38" t="n">
-        <v>6.56666666666667</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38"/>
+      <c r="D38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1.13860854211936</v>
-      </c>
-      <c r="C39" t="n">
-        <v>5.05305485585428</v>
-      </c>
-      <c r="D39" t="n">
-        <v>8.32666666666667</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39"/>
+      <c r="D39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1.02755802220287</v>
-      </c>
-      <c r="C40" t="n">
-        <v>5.59128699125608</v>
-      </c>
-      <c r="D40" t="n">
-        <v>8.98333333333333</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40"/>
+      <c r="D40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-0.213362485285096</v>
-      </c>
-      <c r="C41" t="n">
-        <v>5.12576810508776</v>
-      </c>
-      <c r="D41" t="n">
-        <v>8.94</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41"/>
+      <c r="D41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-1.10211530430036</v>
-      </c>
-      <c r="C42" t="n">
-        <v>5.60586000659615</v>
-      </c>
-      <c r="D42" t="n">
-        <v>8.57333333333333</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42"/>
+      <c r="D42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-1.69390157024552</v>
-      </c>
-      <c r="C43" t="n">
-        <v>5.52838043897577</v>
-      </c>
-      <c r="D43" t="n">
-        <v>7.88666666666667</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43"/>
+      <c r="D43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-1.50844340704488</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3.26888226229123</v>
-      </c>
-      <c r="D44" t="n">
-        <v>6.70666666666667</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-3.31964650898495</v>
-      </c>
-      <c r="C45" t="n">
-        <v>5.2531749283915</v>
-      </c>
-      <c r="D45" t="n">
-        <v>5.56666666666667</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45"/>
+      <c r="D45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-1.37836443756054</v>
-      </c>
-      <c r="C46" t="n">
-        <v>6.02997359176918</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46"/>
       <c r="D46" t="n">
-        <v>3.85666666666667</v>
+        <v>3.93333333333333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-1.58308137884831</v>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="n">
-        <v>5.22160821265558</v>
+        <v>1.00987268400861</v>
       </c>
       <c r="D47" t="n">
-        <v>4.56666666666667</v>
+        <v>3.69666666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-1.51331003638973</v>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
       </c>
       <c r="C48" t="n">
-        <v>4.05004755051017</v>
+        <v>1.36831707962788</v>
       </c>
       <c r="D48" t="n">
-        <v>5.47666666666667</v>
+        <v>2.93666666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-2.03207184801286</v>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
       </c>
       <c r="C49" t="n">
-        <v>3.32230923968417</v>
+        <v>1.1838135128496</v>
       </c>
       <c r="D49" t="n">
-        <v>4.75</v>
+        <v>2.29666666666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-0.966777266726382</v>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
       </c>
       <c r="C50" t="n">
-        <v>6.05065955112813</v>
+        <v>0.872746287317838</v>
       </c>
       <c r="D50" t="n">
-        <v>3.54666666666667</v>
+        <v>2.00333333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.523411126992102</v>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
       </c>
       <c r="C51" t="n">
-        <v>2.482212747414</v>
+        <v>0.922013470086824</v>
       </c>
       <c r="D51" t="n">
-        <v>4.3</v>
+        <v>1.73333333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.714869084907832</v>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
       </c>
       <c r="C52" t="n">
-        <v>3.80282641537324</v>
+        <v>1.02197296267068</v>
       </c>
       <c r="D52" t="n">
-        <v>4.74333333333333</v>
+        <v>1.68333333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1.63645767798517</v>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
       </c>
       <c r="C53" t="n">
-        <v>5.06823283372739</v>
+        <v>1.24836889964772</v>
       </c>
       <c r="D53" t="n">
-        <v>5.14666666666667</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3.35474786515615</v>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
       </c>
       <c r="C54" t="n">
-        <v>4.58280287682182</v>
+        <v>2.05512487851163</v>
       </c>
       <c r="D54" t="n">
-        <v>6.53666666666667</v>
+        <v>2.45666666666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="n">
-        <v>3.72576778815876</v>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
       </c>
       <c r="C55" t="n">
-        <v>6.11072073519026</v>
+        <v>0.657437406992578</v>
       </c>
       <c r="D55" t="n">
-        <v>7.81666666666667</v>
+        <v>2.60666666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2.50150708031924</v>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
       </c>
       <c r="C56" t="n">
-        <v>7.704920664154</v>
+        <v>0.832886693957668</v>
       </c>
       <c r="D56" t="n">
-        <v>10.56</v>
+        <v>2.84666666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2.76182459691796</v>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
       </c>
       <c r="C57" t="n">
-        <v>7.89272330966444</v>
+        <v>0.831156046304748</v>
       </c>
       <c r="D57" t="n">
-        <v>9.99666666666667</v>
+        <v>2.92333333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1.22279537776642</v>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
       </c>
       <c r="C58" t="n">
-        <v>7.47839615460286</v>
+        <v>1.73231088265737</v>
       </c>
       <c r="D58" t="n">
-        <v>9.32333333333333</v>
+        <v>2.96666666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.78793700855968</v>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
       <c r="C59" t="n">
-        <v>9.34334890725363</v>
+        <v>0.700832417566843</v>
       </c>
       <c r="D59" t="n">
-        <v>11.25</v>
+        <v>2.96333333333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.837035631567673</v>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="n">
-        <v>11.5589493270571</v>
+        <v>0.524819668553356</v>
       </c>
       <c r="D60" t="n">
-        <v>12.09</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-1.91107476555992</v>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
       </c>
       <c r="C61" t="n">
-        <v>11.5963452494082</v>
+        <v>3.23364735998357</v>
       </c>
       <c r="D61" t="n">
-        <v>9.34666666666667</v>
+        <v>3.45333333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" t="n">
-        <v>-3.83696704046006</v>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>8.99081777910773</v>
+        <v>1.26147957257441</v>
       </c>
       <c r="D62" t="n">
-        <v>6.30333333333333</v>
+        <v>3.46333333333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="n">
-        <v>-3.84653327877302</v>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
       </c>
       <c r="C63" t="n">
-        <v>5.89806343086696</v>
+        <v>0.91270737388971</v>
       </c>
       <c r="D63" t="n">
-        <v>5.42</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="n">
-        <v>-2.89428248987029</v>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
       </c>
       <c r="C64" t="n">
-        <v>6.99902649210955</v>
+        <v>1.59837915940475</v>
       </c>
       <c r="D64" t="n">
-        <v>6.16</v>
+        <v>3.45666666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-2.32529604539504</v>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
       </c>
       <c r="C65" t="n">
-        <v>6.64003779887796</v>
+        <v>1.81195216794379</v>
       </c>
       <c r="D65" t="n">
-        <v>5.41333333333333</v>
+        <v>3.57666666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="n">
-        <v>-0.892103412381573</v>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
       </c>
       <c r="C66" t="n">
-        <v>4.20416950504858</v>
+        <v>1.99829829517917</v>
       </c>
       <c r="D66" t="n">
-        <v>4.82666666666667</v>
+        <v>3.97666666666667</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="n">
-        <v>-0.971956993021195</v>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
       </c>
       <c r="C67" t="n">
-        <v>4.00915777619293</v>
+        <v>1.84320947022876</v>
       </c>
       <c r="D67" t="n">
-        <v>5.19666666666667</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="n">
-        <v>-1.25221022639188</v>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
       </c>
       <c r="C68" t="n">
-        <v>5.13896431802809</v>
+        <v>1.54561564042517</v>
       </c>
       <c r="D68" t="n">
-        <v>5.28333333333333</v>
+        <v>4.07666666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="n">
-        <v>-1.36979449365331</v>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
       </c>
       <c r="C69" t="n">
-        <v>7.106751762241</v>
+        <v>2.73842049602724</v>
       </c>
       <c r="D69" t="n">
-        <v>4.87333333333333</v>
+        <v>4.16666666666667</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="n">
-        <v>-1.03457555653605</v>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>6.37917172848184</v>
+        <v>2.55332708903566</v>
       </c>
       <c r="D70" t="n">
-        <v>4.66</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.0440892259616632</v>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
       </c>
       <c r="C71" t="n">
-        <v>5.60634992499409</v>
+        <v>3.26919202064744</v>
       </c>
       <c r="D71" t="n">
-        <v>5.15666666666667</v>
+        <v>4.91333333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.992415864066132</v>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v>4.83871679142851</v>
+        <v>3.85069890928165</v>
       </c>
       <c r="D72" t="n">
-        <v>5.82</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.167957067190017</v>
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
       </c>
       <c r="C73" t="n">
-        <v>8.55485168393688</v>
+        <v>3.3276319780537</v>
       </c>
       <c r="D73" t="n">
-        <v>6.51333333333333</v>
+        <v>5.56333333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="n">
-        <v>-0.321007728632772</v>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
       </c>
       <c r="C74" t="n">
-        <v>5.76783666023477</v>
+        <v>1.66503102184841</v>
       </c>
       <c r="D74" t="n">
-        <v>6.75666666666667</v>
+        <v>4.82333333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2.68653868861612</v>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
       </c>
       <c r="C75" t="n">
-        <v>7.57945723983031</v>
+        <v>2.0256704395397</v>
       </c>
       <c r="D75" t="n">
-        <v>7.28333333333333</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2.93266003190364</v>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
       </c>
       <c r="C76" t="n">
-        <v>6.73657157214915</v>
+        <v>3.81619050421644</v>
       </c>
       <c r="D76" t="n">
-        <v>8.1</v>
+        <v>3.89333333333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="n">
-        <v>3.54728843669729</v>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
       </c>
       <c r="C77" t="n">
-        <v>8.09799135744065</v>
+        <v>4.43293013733275</v>
       </c>
       <c r="D77" t="n">
-        <v>9.58333333333333</v>
+        <v>4.17333333333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="n">
-        <v>3.04265311698568</v>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
       </c>
       <c r="C78" t="n">
-        <v>7.22740561832591</v>
+        <v>4.40658727504211</v>
       </c>
       <c r="D78" t="n">
-        <v>10.0733333333333</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2.50194819976919</v>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
       </c>
       <c r="C79" t="n">
-        <v>9.68021995487298</v>
+        <v>4.20450872696758</v>
       </c>
       <c r="D79" t="n">
-        <v>10.18</v>
+        <v>5.98333333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2.62958658208703</v>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
       </c>
       <c r="C80" t="n">
-        <v>8.65317285425569</v>
+        <v>3.89926417435866</v>
       </c>
       <c r="D80" t="n">
-        <v>10.9466666666667</v>
+        <v>5.94666666666667</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2.29860441219021</v>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
       </c>
       <c r="C81" t="n">
-        <v>7.35378629335379</v>
+        <v>5.60660746939696</v>
       </c>
       <c r="D81" t="n">
-        <v>13.5766666666667</v>
+        <v>5.91666666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2.05876261350113</v>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
       </c>
       <c r="C82" t="n">
-        <v>8.31723663683626</v>
+        <v>4.10610962383799</v>
       </c>
       <c r="D82" t="n">
-        <v>15.0466666666667</v>
+        <v>6.56666666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="n">
-        <v>-0.556664993100497</v>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
       </c>
       <c r="C83" t="n">
-        <v>9.40412075971526</v>
+        <v>5.05305485585428</v>
       </c>
       <c r="D83" t="n">
-        <v>12.6866666666667</v>
+        <v>8.32666666666667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="n">
-        <v>-1.1962436365291</v>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
       </c>
       <c r="C84" t="n">
-        <v>8.83626216736637</v>
+        <v>5.59128699125608</v>
       </c>
       <c r="D84" t="n">
-        <v>9.83666666666667</v>
+        <v>8.98333333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.136381169185462</v>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
       </c>
       <c r="C85" t="n">
-        <v>10.285486772162</v>
+        <v>5.12576810508776</v>
       </c>
       <c r="D85" t="n">
-        <v>15.8533333333333</v>
+        <v>8.94</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1.56072535351566</v>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
       </c>
       <c r="C86" t="n">
-        <v>10.4002472752233</v>
+        <v>5.60586000659615</v>
       </c>
       <c r="D86" t="n">
-        <v>16.57</v>
+        <v>8.57333333333333</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.293132272400065</v>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
       </c>
       <c r="C87" t="n">
-        <v>7.84895159912384</v>
+        <v>5.52838043897577</v>
       </c>
       <c r="D87" t="n">
-        <v>17.78</v>
+        <v>7.88666666666667</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.944535679742309</v>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
       </c>
       <c r="C88" t="n">
-        <v>7.45899109557264</v>
+        <v>3.26888226229123</v>
       </c>
       <c r="D88" t="n">
-        <v>17.5766666666667</v>
+        <v>6.70666666666667</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n">
-        <v>-0.713035055463074</v>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
       </c>
       <c r="C89" t="n">
-        <v>6.85288432276341</v>
+        <v>5.2531749283915</v>
       </c>
       <c r="D89" t="n">
-        <v>13.5866666666667</v>
+        <v>5.56666666666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n">
-        <v>-2.87225057853178</v>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
       </c>
       <c r="C90" t="n">
-        <v>5.46497042600738</v>
+        <v>6.02997359176918</v>
       </c>
       <c r="D90" t="n">
-        <v>14.2266666666667</v>
+        <v>3.85666666666667</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="n">
-        <v>-3.04979323242094</v>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
       </c>
       <c r="C91" t="n">
-        <v>5.16261884541009</v>
+        <v>5.22160821265558</v>
       </c>
       <c r="D91" t="n">
-        <v>14.5133333333333</v>
+        <v>4.56666666666667</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="n">
-        <v>-4.11091316474543</v>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
       </c>
       <c r="C92" t="n">
-        <v>5.63506496431998</v>
+        <v>4.05004755051017</v>
       </c>
       <c r="D92" t="n">
-        <v>11.0066666666667</v>
+        <v>5.47666666666667</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="n">
-        <v>-4.79869602224685</v>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
       </c>
       <c r="C93" t="n">
-        <v>4.12543842815865</v>
+        <v>3.32230923968417</v>
       </c>
       <c r="D93" t="n">
-        <v>9.28666666666667</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="n">
-        <v>-4.26861522573763</v>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
       </c>
       <c r="C94" t="n">
-        <v>3.01100604873437</v>
+        <v>6.05065955112813</v>
       </c>
       <c r="D94" t="n">
-        <v>8.65333333333333</v>
+        <v>3.54666666666667</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="n">
-        <v>-2.84767611647343</v>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
       </c>
       <c r="C95" t="n">
-        <v>2.9546746674276</v>
+        <v>2.482212747414</v>
       </c>
       <c r="D95" t="n">
-        <v>8.80333333333333</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="n">
-        <v>-1.74347920806941</v>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
       </c>
       <c r="C96" t="n">
-        <v>4.23248755675569</v>
+        <v>3.80282641537324</v>
       </c>
       <c r="D96" t="n">
-        <v>9.46</v>
+        <v>4.74333333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="n">
-        <v>-0.59397260524019</v>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
       </c>
       <c r="C97" t="n">
-        <v>3.01856758760017</v>
+        <v>5.06823283372739</v>
       </c>
       <c r="D97" t="n">
-        <v>9.43</v>
+        <v>5.14666666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.393452527216986</v>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
       </c>
       <c r="C98" t="n">
-        <v>4.03350871023385</v>
+        <v>4.58280287682182</v>
       </c>
       <c r="D98" t="n">
-        <v>9.68666666666667</v>
+        <v>6.53666666666667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="n">
-        <v>1.13191428879045</v>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
       </c>
       <c r="C99" t="n">
-        <v>3.40657575172489</v>
+        <v>6.11072073519026</v>
       </c>
       <c r="D99" t="n">
-        <v>10.5566666666667</v>
+        <v>7.81666666666667</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1.0977307618294</v>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
       </c>
       <c r="C100" t="n">
-        <v>3.53948689861721</v>
+        <v>7.704920664154</v>
       </c>
       <c r="D100" t="n">
-        <v>11.39</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.90884296999203</v>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
       </c>
       <c r="C101" t="n">
-        <v>2.9793196758531</v>
+        <v>7.89272330966444</v>
       </c>
       <c r="D101" t="n">
-        <v>9.26666666666667</v>
+        <v>9.99666666666667</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.859725665319644</v>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
       </c>
       <c r="C102" t="n">
-        <v>3.93557034011724</v>
+        <v>7.47839615460286</v>
       </c>
       <c r="D102" t="n">
-        <v>8.47666666666667</v>
+        <v>9.32333333333333</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.720837033283139</v>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
       </c>
       <c r="C103" t="n">
-        <v>2.56553258931476</v>
+        <v>9.34334890725363</v>
       </c>
       <c r="D103" t="n">
-        <v>7.92333333333333</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="n">
-        <v>1.22348521866638</v>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
       </c>
       <c r="C104" t="n">
-        <v>2.40798665475328</v>
+        <v>11.5589493270571</v>
       </c>
       <c r="D104" t="n">
-        <v>7.9</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.957594204672318</v>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
       </c>
       <c r="C105" t="n">
-        <v>2.22976920392881</v>
+        <v>11.5963452494082</v>
       </c>
       <c r="D105" t="n">
-        <v>8.10333333333333</v>
+        <v>9.34666666666667</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.890199007658232</v>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
       </c>
       <c r="C106" t="n">
-        <v>1.98457500481055</v>
+        <v>8.99081777910773</v>
       </c>
       <c r="D106" t="n">
-        <v>7.82666666666667</v>
+        <v>6.30333333333333</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.355147747252005</v>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
       </c>
       <c r="C107" t="n">
-        <v>1.5110001211081</v>
+        <v>5.89806343086696</v>
       </c>
       <c r="D107" t="n">
-        <v>6.92</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.337542733743668</v>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
       </c>
       <c r="C108" t="n">
-        <v>1.63627821036343</v>
+        <v>6.99902649210955</v>
       </c>
       <c r="D108" t="n">
-        <v>6.20666666666667</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="n">
-        <v>-0.0806976010963467</v>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
       </c>
       <c r="C109" t="n">
-        <v>2.17389752032169</v>
+        <v>6.64003779887796</v>
       </c>
       <c r="D109" t="n">
-        <v>6.26666666666667</v>
+        <v>5.41333333333333</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="n">
-        <v>-0.276559958943778</v>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
       </c>
       <c r="C110" t="n">
-        <v>2.55055177757484</v>
+        <v>4.20416950504858</v>
       </c>
       <c r="D110" t="n">
-        <v>6.22</v>
+        <v>4.82666666666667</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="n">
-        <v>-0.11913694667669</v>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
       </c>
       <c r="C111" t="n">
-        <v>2.76124745287021</v>
+        <v>4.00915777619293</v>
       </c>
       <c r="D111" t="n">
-        <v>6.65</v>
+        <v>5.19666666666667</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="n">
-        <v>-0.148767962764396</v>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
       </c>
       <c r="C112" t="n">
-        <v>3.02001905280882</v>
+        <v>5.13896431802809</v>
       </c>
       <c r="D112" t="n">
-        <v>6.84333333333333</v>
+        <v>5.28333333333333</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.684460345117976</v>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
       </c>
       <c r="C113" t="n">
-        <v>3.17607295882816</v>
+        <v>7.106751762241</v>
       </c>
       <c r="D113" t="n">
-        <v>6.91666666666667</v>
+        <v>4.87333333333333</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.35686654542868</v>
+        <v>228</v>
+      </c>
+      <c r="B114" t="s">
+        <v>229</v>
       </c>
       <c r="C114" t="n">
-        <v>3.12151134164047</v>
+        <v>6.37917172848184</v>
       </c>
       <c r="D114" t="n">
-        <v>6.66333333333333</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.846872888696026</v>
+        <v>230</v>
+      </c>
+      <c r="B115" t="s">
+        <v>231</v>
       </c>
       <c r="C115" t="n">
-        <v>3.87342821904166</v>
+        <v>5.60634992499409</v>
       </c>
       <c r="D115" t="n">
-        <v>7.15666666666667</v>
+        <v>5.15666666666667</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.644786932648067</v>
+        <v>232</v>
+      </c>
+      <c r="B116" t="s">
+        <v>233</v>
       </c>
       <c r="C116" t="n">
-        <v>4.75529567541813</v>
+        <v>4.83871679142851</v>
       </c>
       <c r="D116" t="n">
-        <v>7.98333333333333</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1.21213533001008</v>
+        <v>234</v>
+      </c>
+      <c r="B117" t="s">
+        <v>235</v>
       </c>
       <c r="C117" t="n">
-        <v>3.44016946227867</v>
+        <v>8.55485168393688</v>
       </c>
       <c r="D117" t="n">
-        <v>8.47</v>
+        <v>6.51333333333333</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1.49764011596556</v>
+        <v>236</v>
+      </c>
+      <c r="B118" t="s">
+        <v>237</v>
       </c>
       <c r="C118" t="n">
-        <v>4.1491041958146</v>
+        <v>5.76783666023477</v>
       </c>
       <c r="D118" t="n">
-        <v>9.44333333333333</v>
+        <v>6.75666666666667</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1.56238663502073</v>
+        <v>238</v>
+      </c>
+      <c r="B119" t="s">
+        <v>239</v>
       </c>
       <c r="C119" t="n">
-        <v>4.23986121451776</v>
+        <v>7.57945723983031</v>
       </c>
       <c r="D119" t="n">
-        <v>9.72666666666667</v>
+        <v>7.28333333333333</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1.63405775867407</v>
+        <v>240</v>
+      </c>
+      <c r="B120" t="s">
+        <v>241</v>
       </c>
       <c r="C120" t="n">
-        <v>2.90864607349519</v>
+        <v>6.73657157214915</v>
       </c>
       <c r="D120" t="n">
-        <v>9.08333333333333</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1.19147416122996</v>
+        <v>242</v>
+      </c>
+      <c r="B121" t="s">
+        <v>243</v>
       </c>
       <c r="C121" t="n">
-        <v>2.83922992082992</v>
+        <v>8.09799135744065</v>
       </c>
       <c r="D121" t="n">
-        <v>8.61333333333333</v>
+        <v>9.58333333333333</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1.66284074590575</v>
+        <v>244</v>
+      </c>
+      <c r="B122" t="s">
+        <v>245</v>
       </c>
       <c r="C122" t="n">
-        <v>4.29327455678283</v>
+        <v>7.22740561832591</v>
       </c>
       <c r="D122" t="n">
-        <v>8.25</v>
+        <v>10.0733333333333</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1.42942714420435</v>
+        <v>246</v>
+      </c>
+      <c r="B123" t="s">
+        <v>247</v>
       </c>
       <c r="C123" t="n">
-        <v>4.45753411370511</v>
+        <v>9.68021995487298</v>
       </c>
       <c r="D123" t="n">
-        <v>8.24333333333333</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.915157021203683</v>
+        <v>248</v>
+      </c>
+      <c r="B124" t="s">
+        <v>249</v>
       </c>
       <c r="C124" t="n">
-        <v>3.40983903902305</v>
+        <v>8.65317285425569</v>
       </c>
       <c r="D124" t="n">
-        <v>8.16</v>
+        <v>10.9466666666667</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>127</v>
-      </c>
-      <c r="B125" t="n">
-        <v>-0.57120658063301</v>
+        <v>250</v>
+      </c>
+      <c r="B125" t="s">
+        <v>251</v>
       </c>
       <c r="C125" t="n">
-        <v>2.9682752826222</v>
+        <v>7.35378629335379</v>
       </c>
       <c r="D125" t="n">
-        <v>7.74333333333333</v>
+        <v>13.5766666666667</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>128</v>
-      </c>
-      <c r="B126" t="n">
-        <v>-1.6094236254089</v>
+        <v>252</v>
+      </c>
+      <c r="B126" t="s">
+        <v>253</v>
       </c>
       <c r="C126" t="n">
-        <v>3.89736135978538</v>
+        <v>8.31723663683626</v>
       </c>
       <c r="D126" t="n">
-        <v>6.42666666666667</v>
+        <v>15.0466666666667</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127" t="n">
-        <v>-1.40539685713925</v>
+        <v>254</v>
+      </c>
+      <c r="B127" t="s">
+        <v>255</v>
       </c>
       <c r="C127" t="n">
-        <v>2.92449405496811</v>
+        <v>9.40412075971526</v>
       </c>
       <c r="D127" t="n">
-        <v>5.86333333333333</v>
+        <v>12.6866666666667</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>130</v>
-      </c>
-      <c r="B128" t="n">
-        <v>-1.48247534269625</v>
+        <v>256</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
       </c>
       <c r="C128" t="n">
-        <v>3.11772902591585</v>
+        <v>8.83626216736637</v>
       </c>
       <c r="D128" t="n">
-        <v>5.64333333333333</v>
+        <v>9.83666666666667</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>131</v>
-      </c>
-      <c r="B129" t="n">
-        <v>-1.72841456405788</v>
+        <v>258</v>
+      </c>
+      <c r="B129" t="s">
+        <v>259</v>
       </c>
       <c r="C129" t="n">
-        <v>2.36443678980649</v>
+        <v>10.285486772162</v>
       </c>
       <c r="D129" t="n">
-        <v>4.81666666666667</v>
+        <v>15.8533333333333</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>132</v>
-      </c>
-      <c r="B130" t="n">
-        <v>-1.14812520178766</v>
+        <v>260</v>
+      </c>
+      <c r="B130" t="s">
+        <v>261</v>
       </c>
       <c r="C130" t="n">
-        <v>1.48277254537348</v>
+        <v>10.4002472752233</v>
       </c>
       <c r="D130" t="n">
-        <v>4.02333333333333</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>133</v>
-      </c>
-      <c r="B131" t="n">
-        <v>-0.697665875410891</v>
+        <v>262</v>
+      </c>
+      <c r="B131" t="s">
+        <v>263</v>
       </c>
       <c r="C131" t="n">
-        <v>2.3994426219172</v>
+        <v>7.84895159912384</v>
       </c>
       <c r="D131" t="n">
-        <v>3.77</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>134</v>
-      </c>
-      <c r="B132" t="n">
-        <v>-0.362031212523917</v>
+        <v>264</v>
+      </c>
+      <c r="B132" t="s">
+        <v>265</v>
       </c>
       <c r="C132" t="n">
-        <v>1.95253067634766</v>
+        <v>7.45899109557264</v>
       </c>
       <c r="D132" t="n">
-        <v>3.25666666666667</v>
+        <v>17.5766666666667</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>135</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.00715340882777582</v>
+        <v>266</v>
+      </c>
+      <c r="B133" t="s">
+        <v>267</v>
       </c>
       <c r="C133" t="n">
-        <v>2.74038847193943</v>
+        <v>6.85288432276341</v>
       </c>
       <c r="D133" t="n">
-        <v>3.03666666666667</v>
+        <v>13.5866666666667</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134" t="n">
-        <v>-0.515758670329269</v>
+        <v>268</v>
+      </c>
+      <c r="B134" t="s">
+        <v>269</v>
       </c>
       <c r="C134" t="n">
-        <v>2.23797086581072</v>
+        <v>5.46497042600738</v>
       </c>
       <c r="D134" t="n">
-        <v>3.04</v>
+        <v>14.2266666666667</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135" t="n">
-        <v>-0.647243464005065</v>
+        <v>270</v>
+      </c>
+      <c r="B135" t="s">
+        <v>271</v>
       </c>
       <c r="C135" t="n">
-        <v>2.37553093701948</v>
+        <v>5.16261884541009</v>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>14.5133333333333</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>138</v>
-      </c>
-      <c r="B136" t="n">
-        <v>-0.905925015304909</v>
+        <v>272</v>
+      </c>
+      <c r="B136" t="s">
+        <v>273</v>
       </c>
       <c r="C136" t="n">
-        <v>2.36771880018338</v>
+        <v>5.63506496431998</v>
       </c>
       <c r="D136" t="n">
-        <v>3.06</v>
+        <v>11.0066666666667</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>139</v>
-      </c>
-      <c r="B137" t="n">
-        <v>-0.312456574769016</v>
+        <v>274</v>
+      </c>
+      <c r="B137" t="s">
+        <v>275</v>
       </c>
       <c r="C137" t="n">
-        <v>2.17464233592288</v>
+        <v>4.12543842815865</v>
       </c>
       <c r="D137" t="n">
-        <v>2.99</v>
+        <v>9.28666666666667</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>140</v>
-      </c>
-      <c r="B138" t="n">
-        <v>-0.126609627480612</v>
+        <v>276</v>
+      </c>
+      <c r="B138" t="s">
+        <v>277</v>
       </c>
       <c r="C138" t="n">
-        <v>1.91084147464302</v>
+        <v>3.01100604873437</v>
       </c>
       <c r="D138" t="n">
-        <v>3.21333333333333</v>
+        <v>8.65333333333333</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" t="n">
-        <v>0.417993033139652</v>
+        <v>278</v>
+      </c>
+      <c r="B139" t="s">
+        <v>279</v>
       </c>
       <c r="C139" t="n">
-        <v>1.92623637330023</v>
+        <v>2.9546746674276</v>
       </c>
       <c r="D139" t="n">
-        <v>3.94</v>
+        <v>8.80333333333333</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>142</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.178517069797657</v>
+        <v>280</v>
+      </c>
+      <c r="B140" t="s">
+        <v>281</v>
       </c>
       <c r="C140" t="n">
-        <v>2.28835321560119</v>
+        <v>4.23248755675569</v>
       </c>
       <c r="D140" t="n">
-        <v>4.48666666666667</v>
+        <v>9.46</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.474838885751794</v>
+        <v>282</v>
+      </c>
+      <c r="B141" t="s">
+        <v>283</v>
       </c>
       <c r="C141" t="n">
-        <v>2.16036328829929</v>
+        <v>3.01856758760017</v>
       </c>
       <c r="D141" t="n">
-        <v>5.16666666666667</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>144</v>
-      </c>
-      <c r="B142" t="n">
-        <v>-0.0337332905749221</v>
+        <v>284</v>
+      </c>
+      <c r="B142" t="s">
+        <v>285</v>
       </c>
       <c r="C142" t="n">
-        <v>2.16681657027777</v>
+        <v>4.03350871023385</v>
       </c>
       <c r="D142" t="n">
-        <v>5.81</v>
+        <v>9.68666666666667</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143" t="n">
-        <v>-0.61847512670159</v>
+        <v>286</v>
+      </c>
+      <c r="B143" t="s">
+        <v>287</v>
       </c>
       <c r="C143" t="n">
-        <v>1.91558880775027</v>
+        <v>3.40657575172489</v>
       </c>
       <c r="D143" t="n">
-        <v>6.02</v>
+        <v>10.5566666666667</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>146</v>
-      </c>
-      <c r="B144" t="n">
-        <v>-0.673750468732592</v>
+        <v>288</v>
+      </c>
+      <c r="B144" t="s">
+        <v>289</v>
       </c>
       <c r="C144" t="n">
-        <v>1.96607577361121</v>
+        <v>3.53948689861721</v>
       </c>
       <c r="D144" t="n">
-        <v>5.79666666666667</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>147</v>
-      </c>
-      <c r="B145" t="n">
-        <v>-0.918648025890967</v>
+        <v>290</v>
+      </c>
+      <c r="B145" t="s">
+        <v>291</v>
       </c>
       <c r="C145" t="n">
-        <v>1.9208648080614</v>
+        <v>2.9793196758531</v>
       </c>
       <c r="D145" t="n">
-        <v>5.72</v>
+        <v>9.26666666666667</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>148</v>
-      </c>
-      <c r="B146" t="n">
-        <v>-1.11243383263311</v>
+        <v>292</v>
+      </c>
+      <c r="B146" t="s">
+        <v>293</v>
       </c>
       <c r="C146" t="n">
-        <v>1.91758893552354</v>
+        <v>3.93557034011724</v>
       </c>
       <c r="D146" t="n">
-        <v>5.36333333333333</v>
+        <v>8.47666666666667</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147" t="n">
-        <v>-0.415156308799958</v>
+        <v>294</v>
+      </c>
+      <c r="B147" t="s">
+        <v>295</v>
       </c>
       <c r="C147" t="n">
-        <v>1.65568271742735</v>
+        <v>2.56553258931476</v>
       </c>
       <c r="D147" t="n">
-        <v>5.24333333333333</v>
+        <v>7.92333333333333</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>150</v>
-      </c>
-      <c r="B148" t="n">
-        <v>-0.493705007881395</v>
+        <v>296</v>
+      </c>
+      <c r="B148" t="s">
+        <v>297</v>
       </c>
       <c r="C148" t="n">
-        <v>1.30908033688577</v>
+        <v>2.40798665475328</v>
       </c>
       <c r="D148" t="n">
-        <v>5.30666666666667</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" t="n">
-        <v>-0.444496015978402</v>
+        <v>298</v>
+      </c>
+      <c r="B149" t="s">
+        <v>299</v>
       </c>
       <c r="C149" t="n">
-        <v>2.1276334996859</v>
+        <v>2.22976920392881</v>
       </c>
       <c r="D149" t="n">
-        <v>5.28</v>
+        <v>8.10333333333333</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>152</v>
-      </c>
-      <c r="B150" t="n">
-        <v>-0.794398035642452</v>
+        <v>300</v>
+      </c>
+      <c r="B150" t="s">
+        <v>301</v>
       </c>
       <c r="C150" t="n">
-        <v>2.38303523784893</v>
+        <v>1.98457500481055</v>
       </c>
       <c r="D150" t="n">
-        <v>5.27666666666667</v>
+        <v>7.82666666666667</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>153</v>
-      </c>
-      <c r="B151" t="n">
-        <v>-0.142592039030909</v>
+        <v>302</v>
+      </c>
+      <c r="B151" t="s">
+        <v>303</v>
       </c>
       <c r="C151" t="n">
-        <v>0.793128412285071</v>
+        <v>1.5110001211081</v>
       </c>
       <c r="D151" t="n">
-        <v>5.52333333333333</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>154</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.0956527280928654</v>
+        <v>304</v>
+      </c>
+      <c r="B152" t="s">
+        <v>305</v>
       </c>
       <c r="C152" t="n">
-        <v>1.74282156456513</v>
+        <v>1.63627821036343</v>
       </c>
       <c r="D152" t="n">
-        <v>5.53333333333333</v>
+        <v>6.20666666666667</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>155</v>
-      </c>
-      <c r="B153" t="n">
-        <v>-0.0559780838923274</v>
+        <v>306</v>
+      </c>
+      <c r="B153" t="s">
+        <v>307</v>
       </c>
       <c r="C153" t="n">
-        <v>1.32797856940243</v>
+        <v>2.17389752032169</v>
       </c>
       <c r="D153" t="n">
-        <v>5.50666666666667</v>
+        <v>6.26666666666667</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" t="n">
-        <v>-0.054805338192665</v>
+        <v>308</v>
+      </c>
+      <c r="B154" t="s">
+        <v>309</v>
       </c>
       <c r="C154" t="n">
-        <v>0.56778680253089</v>
+        <v>2.55055177757484</v>
       </c>
       <c r="D154" t="n">
-        <v>5.52</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>157</v>
-      </c>
-      <c r="B155" t="n">
-        <v>-0.123064346551338</v>
+        <v>310</v>
+      </c>
+      <c r="B155" t="s">
+        <v>311</v>
       </c>
       <c r="C155" t="n">
-        <v>0.944523991138979</v>
+        <v>2.76124745287021</v>
       </c>
       <c r="D155" t="n">
-        <v>5.5</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>158</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.149847856710039</v>
+        <v>312</v>
+      </c>
+      <c r="B156" t="s">
+        <v>313</v>
       </c>
       <c r="C156" t="n">
-        <v>1.68884955691162</v>
+        <v>3.02001905280882</v>
       </c>
       <c r="D156" t="n">
-        <v>5.53333333333333</v>
+        <v>6.84333333333333</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>159</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.783292834399241</v>
+        <v>314</v>
+      </c>
+      <c r="B157" t="s">
+        <v>315</v>
       </c>
       <c r="C157" t="n">
-        <v>1.12573630888626</v>
+        <v>3.17607295882816</v>
       </c>
       <c r="D157" t="n">
-        <v>4.86</v>
+        <v>6.91666666666667</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>160</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.774243134889829</v>
+        <v>316</v>
+      </c>
+      <c r="B158" t="s">
+        <v>317</v>
       </c>
       <c r="C158" t="n">
-        <v>1.29804910738294</v>
+        <v>3.12151134164047</v>
       </c>
       <c r="D158" t="n">
-        <v>4.73333333333333</v>
+        <v>6.66333333333333</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>161</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.683391634720643</v>
+        <v>318</v>
+      </c>
+      <c r="B159" t="s">
+        <v>319</v>
       </c>
       <c r="C159" t="n">
-        <v>1.50814619001949</v>
+        <v>3.87342821904166</v>
       </c>
       <c r="D159" t="n">
-        <v>4.74666666666667</v>
+        <v>7.15666666666667</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>162</v>
-      </c>
-      <c r="B160" t="n">
-        <v>1.10304237135956</v>
+        <v>320</v>
+      </c>
+      <c r="B160" t="s">
+        <v>321</v>
       </c>
       <c r="C160" t="n">
-        <v>1.41260373756182</v>
+        <v>4.75529567541813</v>
       </c>
       <c r="D160" t="n">
-        <v>5.09333333333333</v>
+        <v>7.98333333333333</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>163</v>
-      </c>
-      <c r="B161" t="n">
-        <v>1.85970088600182</v>
+        <v>322</v>
+      </c>
+      <c r="B161" t="s">
+        <v>323</v>
       </c>
       <c r="C161" t="n">
-        <v>2.21296828321584</v>
+        <v>3.44016946227867</v>
       </c>
       <c r="D161" t="n">
-        <v>5.30666666666667</v>
+        <v>8.47</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>164</v>
-      </c>
-      <c r="B162" t="n">
-        <v>1.37949231862269</v>
+        <v>324</v>
+      </c>
+      <c r="B162" t="s">
+        <v>325</v>
       </c>
       <c r="C162" t="n">
-        <v>2.65060204521426</v>
+        <v>4.1491041958146</v>
       </c>
       <c r="D162" t="n">
-        <v>5.67666666666667</v>
+        <v>9.44333333333333</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>165</v>
-      </c>
-      <c r="B163" t="n">
-        <v>2.37076020096829</v>
+        <v>326</v>
+      </c>
+      <c r="B163" t="s">
+        <v>327</v>
       </c>
       <c r="C163" t="n">
-        <v>2.4842566590582</v>
+        <v>4.23986121451776</v>
       </c>
       <c r="D163" t="n">
-        <v>6.27333333333333</v>
+        <v>9.72666666666667</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>166</v>
-      </c>
-      <c r="B164" t="n">
-        <v>1.68722058427218</v>
+        <v>328</v>
+      </c>
+      <c r="B164" t="s">
+        <v>329</v>
       </c>
       <c r="C164" t="n">
-        <v>2.33185503377413</v>
+        <v>2.90864607349519</v>
       </c>
       <c r="D164" t="n">
-        <v>6.52</v>
+        <v>9.08333333333333</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>167</v>
-      </c>
-      <c r="B165" t="n">
-        <v>1.52329556470487</v>
+        <v>330</v>
+      </c>
+      <c r="B165" t="s">
+        <v>331</v>
       </c>
       <c r="C165" t="n">
-        <v>2.14929318528299</v>
+        <v>2.83922992082992</v>
       </c>
       <c r="D165" t="n">
-        <v>6.47333333333333</v>
+        <v>8.61333333333333</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>168</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.458965721807836</v>
+        <v>332</v>
+      </c>
+      <c r="B166" t="s">
+        <v>333</v>
       </c>
       <c r="C166" t="n">
-        <v>2.63661349171933</v>
+        <v>4.29327455678283</v>
       </c>
       <c r="D166" t="n">
-        <v>5.59333333333333</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>169</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.364742366709336</v>
+        <v>334</v>
+      </c>
+      <c r="B167" t="s">
+        <v>335</v>
       </c>
       <c r="C167" t="n">
-        <v>2.39858100818182</v>
+        <v>4.45753411370511</v>
       </c>
       <c r="D167" t="n">
-        <v>4.32666666666667</v>
+        <v>8.24333333333333</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>170</v>
-      </c>
-      <c r="B168" t="n">
-        <v>-0.738552234883016</v>
+        <v>336</v>
+      </c>
+      <c r="B168" t="s">
+        <v>337</v>
       </c>
       <c r="C168" t="n">
-        <v>1.56964131967356</v>
+        <v>3.40983903902305</v>
       </c>
       <c r="D168" t="n">
-        <v>3.49666666666667</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>171</v>
-      </c>
-      <c r="B169" t="n">
-        <v>-1.1555732191141</v>
+        <v>338</v>
+      </c>
+      <c r="B169" t="s">
+        <v>339</v>
       </c>
       <c r="C169" t="n">
-        <v>1.25343256231361</v>
+        <v>2.9682752826222</v>
       </c>
       <c r="D169" t="n">
-        <v>2.13333333333333</v>
+        <v>7.74333333333333</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>172</v>
-      </c>
-      <c r="B170" t="n">
-        <v>-1.00772216482259</v>
+        <v>340</v>
+      </c>
+      <c r="B170" t="s">
+        <v>341</v>
       </c>
       <c r="C170" t="n">
-        <v>1.25484854513758</v>
+        <v>3.89736135978538</v>
       </c>
       <c r="D170" t="n">
-        <v>1.73333333333333</v>
+        <v>6.42666666666667</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>173</v>
-      </c>
-      <c r="B171" t="n">
-        <v>-1.07884312401723</v>
+        <v>342</v>
+      </c>
+      <c r="B171" t="s">
+        <v>343</v>
       </c>
       <c r="C171" t="n">
-        <v>1.39439721824353</v>
+        <v>2.92449405496811</v>
       </c>
       <c r="D171" t="n">
-        <v>1.75</v>
+        <v>5.86333333333333</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>174</v>
-      </c>
-      <c r="B172" t="n">
-        <v>-1.35473138522428</v>
+        <v>344</v>
+      </c>
+      <c r="B172" t="s">
+        <v>345</v>
       </c>
       <c r="C172" t="n">
-        <v>1.91335937475934</v>
+        <v>3.11772902591585</v>
       </c>
       <c r="D172" t="n">
-        <v>1.74</v>
+        <v>5.64333333333333</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>175</v>
-      </c>
-      <c r="B173" t="n">
-        <v>-1.91441049868253</v>
+        <v>346</v>
+      </c>
+      <c r="B173" t="s">
+        <v>347</v>
       </c>
       <c r="C173" t="n">
-        <v>2.314507014502</v>
+        <v>2.36443678980649</v>
       </c>
       <c r="D173" t="n">
-        <v>1.44333333333333</v>
+        <v>4.81666666666667</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>176</v>
-      </c>
-      <c r="B174" t="n">
-        <v>-2.07515835925491</v>
+        <v>348</v>
+      </c>
+      <c r="B174" t="s">
+        <v>349</v>
       </c>
       <c r="C174" t="n">
-        <v>1.95083965843956</v>
+        <v>1.48277254537348</v>
       </c>
       <c r="D174" t="n">
-        <v>1.25</v>
+        <v>4.02333333333333</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>177</v>
-      </c>
-      <c r="B175" t="n">
-        <v>-1.88221477125712</v>
+        <v>350</v>
+      </c>
+      <c r="B175" t="s">
+        <v>351</v>
       </c>
       <c r="C175" t="n">
-        <v>1.40478370914181</v>
+        <v>2.3994426219172</v>
       </c>
       <c r="D175" t="n">
-        <v>1.24666666666667</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>178</v>
-      </c>
-      <c r="B176" t="n">
-        <v>-0.922919936938627</v>
+        <v>352</v>
+      </c>
+      <c r="B176" t="s">
+        <v>353</v>
       </c>
       <c r="C176" t="n">
-        <v>2.28202231698091</v>
+        <v>1.95253067634766</v>
       </c>
       <c r="D176" t="n">
-        <v>1.01666666666667</v>
+        <v>3.25666666666667</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>179</v>
-      </c>
-      <c r="B177" t="n">
-        <v>-0.458052686084187</v>
+        <v>354</v>
+      </c>
+      <c r="B177" t="s">
+        <v>355</v>
       </c>
       <c r="C177" t="n">
-        <v>2.42882251082079</v>
+        <v>2.74038847193943</v>
       </c>
       <c r="D177" t="n">
-        <v>0.996666666666667</v>
+        <v>3.03666666666667</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>180</v>
-      </c>
-      <c r="B178" t="n">
-        <v>-0.578035383352216</v>
+        <v>356</v>
+      </c>
+      <c r="B178" t="s">
+        <v>357</v>
       </c>
       <c r="C178" t="n">
-        <v>2.84410048762709</v>
+        <v>2.23797086581072</v>
       </c>
       <c r="D178" t="n">
-        <v>1.00333333333333</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>181</v>
-      </c>
-      <c r="B179" t="n">
-        <v>-0.483605334622617</v>
+        <v>358</v>
+      </c>
+      <c r="B179" t="s">
+        <v>359</v>
       </c>
       <c r="C179" t="n">
-        <v>3.21495581681113</v>
+        <v>2.37553093701948</v>
       </c>
       <c r="D179" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>182</v>
-      </c>
-      <c r="B180" t="n">
-        <v>-0.205791193895521</v>
+        <v>360</v>
+      </c>
+      <c r="B180" t="s">
+        <v>361</v>
       </c>
       <c r="C180" t="n">
-        <v>2.52928480136383</v>
+        <v>2.36771880018338</v>
       </c>
       <c r="D180" t="n">
-        <v>1.43333333333333</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>183</v>
-      </c>
-      <c r="B181" t="n">
-        <v>0.158193756517377</v>
+        <v>362</v>
+      </c>
+      <c r="B181" t="s">
+        <v>363</v>
       </c>
       <c r="C181" t="n">
-        <v>3.0892451197257</v>
+        <v>2.17464233592288</v>
       </c>
       <c r="D181" t="n">
-        <v>1.95</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>184</v>
-      </c>
-      <c r="B182" t="n">
-        <v>0.629806484041318</v>
+        <v>364</v>
+      </c>
+      <c r="B182" t="s">
+        <v>365</v>
       </c>
       <c r="C182" t="n">
-        <v>3.18472623107091</v>
+        <v>1.91084147464302</v>
       </c>
       <c r="D182" t="n">
-        <v>2.47</v>
+        <v>3.21333333333333</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>185</v>
-      </c>
-      <c r="B183" t="n">
-        <v>0.513049364918139</v>
+        <v>366</v>
+      </c>
+      <c r="B183" t="s">
+        <v>367</v>
       </c>
       <c r="C183" t="n">
-        <v>2.8688850289118</v>
+        <v>1.92623637330023</v>
       </c>
       <c r="D183" t="n">
-        <v>2.94333333333333</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>186</v>
-      </c>
-      <c r="B184" t="n">
-        <v>0.712770250520478</v>
+        <v>368</v>
+      </c>
+      <c r="B184" t="s">
+        <v>369</v>
       </c>
       <c r="C184" t="n">
-        <v>3.63067942543047</v>
+        <v>2.28835321560119</v>
       </c>
       <c r="D184" t="n">
-        <v>3.46</v>
+        <v>4.48666666666667</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>187</v>
-      </c>
-      <c r="B185" t="n">
-        <v>0.716191102900154</v>
+        <v>370</v>
+      </c>
+      <c r="B185" t="s">
+        <v>371</v>
       </c>
       <c r="C185" t="n">
-        <v>3.27358350229829</v>
+        <v>2.16036328829929</v>
       </c>
       <c r="D185" t="n">
-        <v>3.98</v>
+        <v>5.16666666666667</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>188</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1.53542401532718</v>
+        <v>372</v>
+      </c>
+      <c r="B186" t="s">
+        <v>373</v>
       </c>
       <c r="C186" t="n">
-        <v>2.82393299707664</v>
+        <v>2.16681657027777</v>
       </c>
       <c r="D186" t="n">
-        <v>4.45666666666667</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>189</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1.31249004371838</v>
+        <v>374</v>
+      </c>
+      <c r="B187" t="s">
+        <v>375</v>
       </c>
       <c r="C187" t="n">
-        <v>3.47707502026928</v>
+        <v>1.91558880775027</v>
       </c>
       <c r="D187" t="n">
-        <v>4.90666666666667</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>190</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1.01830078042582</v>
+        <v>376</v>
+      </c>
+      <c r="B188" t="s">
+        <v>377</v>
       </c>
       <c r="C188" t="n">
-        <v>2.78468603138151</v>
+        <v>1.96607577361121</v>
       </c>
       <c r="D188" t="n">
-        <v>5.24666666666667</v>
+        <v>5.79666666666667</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>191</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1.4680361359396</v>
+        <v>378</v>
+      </c>
+      <c r="B189" t="s">
+        <v>379</v>
       </c>
       <c r="C189" t="n">
-        <v>1.42757688252786</v>
+        <v>1.9208648080614</v>
       </c>
       <c r="D189" t="n">
-        <v>5.24666666666667</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>192</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1.40040321198498</v>
+        <v>380</v>
+      </c>
+      <c r="B190" t="s">
+        <v>381</v>
       </c>
       <c r="C190" t="n">
-        <v>3.78526535340598</v>
+        <v>1.91758893552354</v>
       </c>
       <c r="D190" t="n">
-        <v>5.25666666666667</v>
+        <v>5.36333333333333</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>193</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1.67942675964756</v>
+        <v>382</v>
+      </c>
+      <c r="B191" t="s">
+        <v>383</v>
       </c>
       <c r="C191" t="n">
-        <v>2.771529658974</v>
+        <v>1.65568271742735</v>
       </c>
       <c r="D191" t="n">
-        <v>5.25</v>
+        <v>5.24333333333333</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>194</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1.95830914312971</v>
+        <v>384</v>
+      </c>
+      <c r="B192" t="s">
+        <v>385</v>
       </c>
       <c r="C192" t="n">
-        <v>2.1803969203571</v>
+        <v>1.30908033688577</v>
       </c>
       <c r="D192" t="n">
-        <v>5.07333333333333</v>
+        <v>5.30666666666667</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>195</v>
-      </c>
-      <c r="B193" t="n">
-        <v>2.32166611602764</v>
+        <v>386</v>
+      </c>
+      <c r="B193" t="s">
+        <v>387</v>
       </c>
       <c r="C193" t="n">
-        <v>1.61718767810015</v>
+        <v>2.1276334996859</v>
       </c>
       <c r="D193" t="n">
-        <v>4.49666666666667</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>196</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1.65961831738528</v>
+        <v>388</v>
+      </c>
+      <c r="B194" t="s">
+        <v>389</v>
       </c>
       <c r="C194" t="n">
-        <v>1.47784549776055</v>
+        <v>2.38303523784893</v>
       </c>
       <c r="D194" t="n">
-        <v>3.17666666666667</v>
+        <v>5.27666666666667</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>197</v>
-      </c>
-      <c r="B195" t="n">
-        <v>2.0419721577932</v>
+        <v>390</v>
+      </c>
+      <c r="B195" t="s">
+        <v>391</v>
       </c>
       <c r="C195" t="n">
-        <v>1.9331325863952</v>
+        <v>0.793128412285071</v>
       </c>
       <c r="D195" t="n">
-        <v>2.08666666666667</v>
+        <v>5.52333333333333</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>198</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1.32056239849128</v>
+        <v>392</v>
+      </c>
+      <c r="B196" t="s">
+        <v>393</v>
       </c>
       <c r="C196" t="n">
-        <v>3.00222260184917</v>
+        <v>1.74282156456513</v>
       </c>
       <c r="D196" t="n">
-        <v>1.94</v>
+        <v>5.53333333333333</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>199</v>
-      </c>
-      <c r="B197" t="n">
-        <v>-1.07880122659498</v>
+        <v>394</v>
+      </c>
+      <c r="B197" t="s">
+        <v>395</v>
       </c>
       <c r="C197" t="n">
-        <v>0.967166539033926</v>
+        <v>1.32797856940243</v>
       </c>
       <c r="D197" t="n">
-        <v>0.506666666666667</v>
+        <v>5.50666666666667</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>200</v>
-      </c>
-      <c r="B198" t="n">
-        <v>-2.40606338314979</v>
+        <v>396</v>
+      </c>
+      <c r="B198" t="s">
+        <v>397</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.316105595714689</v>
+        <v>0.56778680253089</v>
       </c>
       <c r="D198" t="n">
-        <v>0.183333333333333</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>201</v>
-      </c>
-      <c r="B199" t="n">
-        <v>-2.77859724145078</v>
+        <v>398</v>
+      </c>
+      <c r="B199" t="s">
+        <v>399</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.664635987863704</v>
+        <v>0.944523991138979</v>
       </c>
       <c r="D199" t="n">
-        <v>0.18</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>202</v>
-      </c>
-      <c r="B200" t="n">
-        <v>-2.63601099618036</v>
+        <v>400</v>
+      </c>
+      <c r="B200" t="s">
+        <v>401</v>
       </c>
       <c r="C200" t="n">
-        <v>0.474852653606206</v>
+        <v>1.68884955691162</v>
       </c>
       <c r="D200" t="n">
-        <v>0.156666666666667</v>
+        <v>5.53333333333333</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>203</v>
-      </c>
-      <c r="B201" t="n">
-        <v>-1.78786317426098</v>
+        <v>402</v>
+      </c>
+      <c r="B201" t="s">
+        <v>403</v>
       </c>
       <c r="C201" t="n">
-        <v>1.26352470221285</v>
+        <v>1.12573630888626</v>
       </c>
       <c r="D201" t="n">
-        <v>0.12</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>204</v>
-      </c>
-      <c r="B202" t="n">
-        <v>-1.55353220154328</v>
+        <v>404</v>
+      </c>
+      <c r="B202" t="s">
+        <v>405</v>
       </c>
       <c r="C202" t="n">
-        <v>1.1472476751031</v>
+        <v>1.29804910738294</v>
       </c>
       <c r="D202" t="n">
-        <v>0.133333333333333</v>
+        <v>4.73333333333333</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>205</v>
-      </c>
-      <c r="B203" t="n">
-        <v>-0.863573714276988</v>
+        <v>406</v>
+      </c>
+      <c r="B203" t="s">
+        <v>407</v>
       </c>
       <c r="C203" t="n">
-        <v>1.94950723979765</v>
+        <v>1.50814619001949</v>
       </c>
       <c r="D203" t="n">
-        <v>0.193333333333333</v>
+        <v>4.74666666666667</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>206</v>
-      </c>
-      <c r="B204" t="n">
-        <v>-0.39337053908941</v>
+        <v>408</v>
+      </c>
+      <c r="B204" t="s">
+        <v>409</v>
       </c>
       <c r="C204" t="n">
-        <v>1.21419178793474</v>
+        <v>1.41260373756182</v>
       </c>
       <c r="D204" t="n">
-        <v>0.186666666666667</v>
+        <v>5.09333333333333</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>207</v>
-      </c>
-      <c r="B205" t="n">
-        <v>-0.192937291377504</v>
+        <v>410</v>
+      </c>
+      <c r="B205" t="s">
+        <v>411</v>
       </c>
       <c r="C205" t="n">
-        <v>2.31547197538013</v>
+        <v>2.21296828321584</v>
       </c>
       <c r="D205" t="n">
-        <v>0.186666666666667</v>
+        <v>5.30666666666667</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>208</v>
-      </c>
-      <c r="B206" t="n">
-        <v>-0.779291667650917</v>
+        <v>412</v>
+      </c>
+      <c r="B206" t="s">
+        <v>413</v>
       </c>
       <c r="C206" t="n">
-        <v>2.04210620897669</v>
+        <v>2.65060204521426</v>
       </c>
       <c r="D206" t="n">
-        <v>0.156666666666667</v>
+        <v>5.67666666666667</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>209</v>
-      </c>
-      <c r="B207" t="n">
-        <v>-0.479485188096263</v>
+        <v>414</v>
+      </c>
+      <c r="B207" t="s">
+        <v>415</v>
       </c>
       <c r="C207" t="n">
-        <v>2.63661886679891</v>
+        <v>2.4842566590582</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0933333333333333</v>
+        <v>6.27333333333333</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>210</v>
-      </c>
-      <c r="B208" t="n">
-        <v>-0.901505167046324</v>
+        <v>416</v>
+      </c>
+      <c r="B208" t="s">
+        <v>417</v>
       </c>
       <c r="C208" t="n">
-        <v>2.40172772076939</v>
+        <v>2.33185503377413</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0833333333333333</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>211</v>
-      </c>
-      <c r="B209" t="n">
-        <v>-0.208905968503892</v>
+        <v>418</v>
+      </c>
+      <c r="B209" t="s">
+        <v>419</v>
       </c>
       <c r="C209" t="n">
-        <v>0.474271380095459</v>
+        <v>2.14929318528299</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0733333333333333</v>
+        <v>6.47333333333333</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>212</v>
-      </c>
-      <c r="B210" t="n">
-        <v>0.178797199094305</v>
+        <v>420</v>
+      </c>
+      <c r="B210" t="s">
+        <v>421</v>
       </c>
       <c r="C210" t="n">
-        <v>2.34134319778931</v>
+        <v>2.63661349171933</v>
       </c>
       <c r="D210" t="n">
-        <v>0.103333333333333</v>
+        <v>5.59333333333333</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>213</v>
-      </c>
-      <c r="B211" t="n">
-        <v>0.154963043555689</v>
+        <v>422</v>
+      </c>
+      <c r="B211" t="s">
+        <v>423</v>
       </c>
       <c r="C211" t="n">
-        <v>1.6480458189811</v>
+        <v>2.39858100818182</v>
       </c>
       <c r="D211" t="n">
-        <v>0.153333333333333</v>
+        <v>4.32666666666667</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>214</v>
-      </c>
-      <c r="B212" t="n">
-        <v>-0.190769114482237</v>
+        <v>424</v>
+      </c>
+      <c r="B212" t="s">
+        <v>425</v>
       </c>
       <c r="C212" t="n">
-        <v>2.18973948030445</v>
+        <v>1.56964131967356</v>
       </c>
       <c r="D212" t="n">
-        <v>0.143333333333333</v>
+        <v>3.49666666666667</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>215</v>
-      </c>
-      <c r="B213" t="n">
-        <v>-0.58412549614939</v>
+        <v>426</v>
+      </c>
+      <c r="B213" t="s">
+        <v>427</v>
       </c>
       <c r="C213" t="n">
-        <v>1.99891500973628</v>
+        <v>1.25343256231361</v>
       </c>
       <c r="D213" t="n">
-        <v>0.16</v>
+        <v>2.13333333333333</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>216</v>
-      </c>
-      <c r="B214" t="n">
-        <v>-0.129276887227192</v>
+        <v>428</v>
+      </c>
+      <c r="B214" t="s">
+        <v>429</v>
       </c>
       <c r="C214" t="n">
-        <v>1.58602972711712</v>
+        <v>1.25484854513758</v>
       </c>
       <c r="D214" t="n">
-        <v>0.143333333333333</v>
+        <v>1.73333333333333</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>217</v>
-      </c>
-      <c r="B215" t="n">
-        <v>-0.405131099963363</v>
+        <v>430</v>
+      </c>
+      <c r="B215" t="s">
+        <v>431</v>
       </c>
       <c r="C215" t="n">
-        <v>0.860539016401773</v>
+        <v>1.39439721824353</v>
       </c>
       <c r="D215" t="n">
-        <v>0.116666666666667</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>218</v>
-      </c>
-      <c r="B216" t="n">
-        <v>-0.114957934762927</v>
+        <v>432</v>
+      </c>
+      <c r="B216" t="s">
+        <v>433</v>
       </c>
       <c r="C216" t="n">
-        <v>1.95580821048011</v>
+        <v>1.91335937475934</v>
       </c>
       <c r="D216" t="n">
-        <v>0.0833333333333333</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>219</v>
-      </c>
-      <c r="B217" t="n">
-        <v>0.182931625972849</v>
+        <v>434</v>
+      </c>
+      <c r="B217" t="s">
+        <v>435</v>
       </c>
       <c r="C217" t="n">
-        <v>2.10980263228926</v>
+        <v>2.314507014502</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0866666666666667</v>
+        <v>1.44333333333333</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>220</v>
-      </c>
-      <c r="B218" t="n">
-        <v>-0.743196298657267</v>
+        <v>436</v>
+      </c>
+      <c r="B218" t="s">
+        <v>437</v>
       </c>
       <c r="C218" t="n">
-        <v>1.51453526407046</v>
+        <v>1.95083965843956</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0733333333333333</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>221</v>
-      </c>
-      <c r="B219" t="n">
-        <v>-0.0484400377784411</v>
+        <v>438</v>
+      </c>
+      <c r="B219" t="s">
+        <v>439</v>
       </c>
       <c r="C219" t="n">
-        <v>2.25695223954432</v>
+        <v>1.40478370914181</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0933333333333333</v>
+        <v>1.24666666666667</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>222</v>
-      </c>
-      <c r="B220" t="n">
-        <v>0.564881872279699</v>
+        <v>440</v>
+      </c>
+      <c r="B220" t="s">
+        <v>441</v>
       </c>
       <c r="C220" t="n">
-        <v>1.64097694095382</v>
+        <v>2.28202231698091</v>
       </c>
       <c r="D220" t="n">
-        <v>0.09</v>
+        <v>1.01666666666667</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>223</v>
-      </c>
-      <c r="B221" t="n">
-        <v>0.471145157730568</v>
+        <v>442</v>
+      </c>
+      <c r="B221" t="s">
+        <v>443</v>
       </c>
       <c r="C221" t="n">
-        <v>0.39680082614133</v>
+        <v>2.42882251082079</v>
       </c>
       <c r="D221" t="n">
-        <v>0.1</v>
+        <v>0.996666666666667</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>224</v>
-      </c>
-      <c r="B222" t="n">
-        <v>0.768076951499985</v>
+        <v>444</v>
+      </c>
+      <c r="B222" t="s">
+        <v>445</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.219018451577213</v>
+        <v>2.84410048762709</v>
       </c>
       <c r="D222" t="n">
-        <v>0.11</v>
+        <v>1.00333333333333</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>225</v>
-      </c>
-      <c r="B223" t="n">
-        <v>0.786551188017626</v>
+        <v>446</v>
+      </c>
+      <c r="B223" t="s">
+        <v>447</v>
       </c>
       <c r="C223" t="n">
-        <v>2.29167937527706</v>
+        <v>3.21495581681113</v>
       </c>
       <c r="D223" t="n">
-        <v>0.123333333333333</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>226</v>
-      </c>
-      <c r="B224" t="n">
-        <v>0.588829751961129</v>
+        <v>448</v>
+      </c>
+      <c r="B224" t="s">
+        <v>449</v>
       </c>
       <c r="C224" t="n">
-        <v>1.05896176940128</v>
+        <v>2.52928480136383</v>
       </c>
       <c r="D224" t="n">
-        <v>0.136666666666667</v>
+        <v>1.43333333333333</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>227</v>
-      </c>
-      <c r="B225" t="n">
-        <v>0.17868265858727</v>
+        <v>450</v>
+      </c>
+      <c r="B225" t="s">
+        <v>451</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.008198233280865</v>
+        <v>3.0892451197257</v>
       </c>
       <c r="D225" t="n">
-        <v>0.16</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>228</v>
-      </c>
-      <c r="B226" t="n">
-        <v>0.165275014726873</v>
+        <v>452</v>
+      </c>
+      <c r="B226" t="s">
+        <v>453</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.348580326247827</v>
+        <v>3.18472623107091</v>
       </c>
       <c r="D226" t="n">
-        <v>0.36</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>229</v>
-      </c>
-      <c r="B227" t="n">
-        <v>-0.101788832162164</v>
+        <v>454</v>
+      </c>
+      <c r="B227" t="s">
+        <v>455</v>
       </c>
       <c r="C227" t="n">
-        <v>2.71090455219998</v>
+        <v>2.86888502891181</v>
       </c>
       <c r="D227" t="n">
-        <v>0.373333333333333</v>
+        <v>2.94333333333333</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>230</v>
-      </c>
-      <c r="B228" t="n">
-        <v>0.0212801716330091</v>
+        <v>456</v>
+      </c>
+      <c r="B228" t="s">
+        <v>457</v>
       </c>
       <c r="C228" t="n">
-        <v>1.02152480367721</v>
+        <v>3.63067942543047</v>
       </c>
       <c r="D228" t="n">
-        <v>0.396666666666667</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>231</v>
-      </c>
-      <c r="B229" t="n">
-        <v>-0.00557248391022114</v>
+        <v>458</v>
+      </c>
+      <c r="B229" t="s">
+        <v>459</v>
       </c>
       <c r="C229" t="n">
-        <v>1.93009862768179</v>
+        <v>3.27358350229829</v>
       </c>
       <c r="D229" t="n">
-        <v>0.45</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>232</v>
-      </c>
-      <c r="B230" t="n">
-        <v>-0.0949632706170433</v>
+        <v>460</v>
+      </c>
+      <c r="B230" t="s">
+        <v>461</v>
       </c>
       <c r="C230" t="n">
-        <v>2.03353339992631</v>
+        <v>2.82393299707664</v>
       </c>
       <c r="D230" t="n">
-        <v>0.7</v>
+        <v>4.45666666666667</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>233</v>
-      </c>
-      <c r="B231" t="n">
-        <v>-0.106900608770566</v>
+        <v>462</v>
+      </c>
+      <c r="B231" t="s">
+        <v>463</v>
       </c>
       <c r="C231" t="n">
-        <v>1.04501667155574</v>
+        <v>3.47707502026928</v>
       </c>
       <c r="D231" t="n">
-        <v>0.95</v>
+        <v>4.90666666666667</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>234</v>
-      </c>
-      <c r="B232" t="n">
-        <v>0.113522325871429</v>
+        <v>464</v>
+      </c>
+      <c r="B232" t="s">
+        <v>465</v>
       </c>
       <c r="C232" t="n">
-        <v>2.04993141789771</v>
+        <v>2.78468603138151</v>
       </c>
       <c r="D232" t="n">
-        <v>1.15333333333333</v>
+        <v>5.24666666666667</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>235</v>
-      </c>
-      <c r="B233" t="n">
-        <v>0.674951941106094</v>
+        <v>466</v>
+      </c>
+      <c r="B233" t="s">
+        <v>467</v>
       </c>
       <c r="C233" t="n">
-        <v>2.45248105784128</v>
+        <v>1.42757688252786</v>
       </c>
       <c r="D233" t="n">
-        <v>1.20333333333333</v>
+        <v>5.24666666666667</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>236</v>
-      </c>
-      <c r="B234" t="n">
-        <v>0.931838293132969</v>
+        <v>468</v>
+      </c>
+      <c r="B234" t="s">
+        <v>469</v>
       </c>
       <c r="C234" t="n">
-        <v>2.5361489927775</v>
+        <v>3.78526535340598</v>
       </c>
       <c r="D234" t="n">
-        <v>1.44666666666667</v>
+        <v>5.25666666666667</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>237</v>
-      </c>
-      <c r="B235" t="n">
-        <v>0.91406926394697</v>
+        <v>470</v>
+      </c>
+      <c r="B235" t="s">
+        <v>471</v>
       </c>
       <c r="C235" t="n">
-        <v>2.81792327518211</v>
+        <v>2.771529658974</v>
       </c>
       <c r="D235" t="n">
-        <v>1.73666666666667</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>238</v>
-      </c>
-      <c r="B236" t="n">
-        <v>0.994062715813904</v>
+        <v>472</v>
+      </c>
+      <c r="B236" t="s">
+        <v>473</v>
       </c>
       <c r="C236" t="n">
-        <v>1.72339101938519</v>
+        <v>2.1803969203571</v>
       </c>
       <c r="D236" t="n">
-        <v>1.92333333333333</v>
+        <v>5.07333333333333</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>239</v>
-      </c>
-      <c r="B237" t="n">
-        <v>0.598072004673611</v>
+        <v>474</v>
+      </c>
+      <c r="B237" t="s">
+        <v>475</v>
       </c>
       <c r="C237" t="n">
-        <v>1.71988046831046</v>
+        <v>1.61718767810015</v>
       </c>
       <c r="D237" t="n">
-        <v>2.22</v>
+        <v>4.49666666666667</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>240</v>
-      </c>
-      <c r="B238" t="n">
-        <v>0.685334710231089</v>
+        <v>476</v>
+      </c>
+      <c r="B238" t="s">
+        <v>477</v>
       </c>
       <c r="C238" t="n">
-        <v>1.19798293543028</v>
+        <v>1.47784549776055</v>
       </c>
       <c r="D238" t="n">
-        <v>2.40333333333333</v>
+        <v>3.17666666666667</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>241</v>
-      </c>
-      <c r="B239" t="n">
-        <v>0.9821320507303</v>
+        <v>478</v>
+      </c>
+      <c r="B239" t="s">
+        <v>479</v>
       </c>
       <c r="C239" t="n">
-        <v>2.06188013864015</v>
+        <v>1.9331325863952</v>
       </c>
       <c r="D239" t="n">
-        <v>2.39666666666667</v>
+        <v>2.08666666666667</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>242</v>
-      </c>
-      <c r="B240" t="n">
-        <v>1.60808166230524</v>
+        <v>480</v>
+      </c>
+      <c r="B240" t="s">
+        <v>481</v>
       </c>
       <c r="C240" t="n">
-        <v>1.26890240702195</v>
+        <v>3.00222260184917</v>
       </c>
       <c r="D240" t="n">
-        <v>2.19</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>243</v>
-      </c>
-      <c r="B241" t="n">
-        <v>1.74477626023322</v>
+        <v>482</v>
+      </c>
+      <c r="B241" t="s">
+        <v>483</v>
       </c>
       <c r="C241" t="n">
-        <v>1.24192751701813</v>
+        <v>0.967166539033926</v>
       </c>
       <c r="D241" t="n">
-        <v>1.64333333333333</v>
+        <v>0.506666666666667</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>244</v>
-      </c>
-      <c r="B242" t="n">
-        <v>-0.132996271477559</v>
+        <v>484</v>
+      </c>
+      <c r="B242" t="s">
+        <v>485</v>
       </c>
       <c r="C242" t="n">
-        <v>1.96995835969744</v>
+        <v>-0.316105595714689</v>
       </c>
       <c r="D242" t="n">
-        <v>1.26</v>
+        <v>0.183333333333333</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>245</v>
-      </c>
-      <c r="B243" t="n">
-        <v>-8.90519269329317</v>
+        <v>486</v>
+      </c>
+      <c r="B243" t="s">
+        <v>487</v>
       </c>
       <c r="C243" t="n">
-        <v>-1.59507189798127</v>
+        <v>-0.664635987863704</v>
       </c>
       <c r="D243" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>246</v>
-      </c>
-      <c r="B244" t="n">
-        <v>-2.01772470387933</v>
+        <v>488</v>
+      </c>
+      <c r="B244" t="s">
+        <v>489</v>
       </c>
       <c r="C244" t="n">
-        <v>3.64631948451013</v>
+        <v>0.474852653606206</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0933333333333333</v>
+        <v>0.156666666666667</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>247</v>
-      </c>
-      <c r="B245" t="n">
-        <v>-1.4989480407829</v>
+        <v>490</v>
+      </c>
+      <c r="B245" t="s">
+        <v>491</v>
       </c>
       <c r="C245" t="n">
-        <v>2.48534807751639</v>
+        <v>1.26352470221285</v>
       </c>
       <c r="D245" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>248</v>
-      </c>
-      <c r="B246" t="n">
-        <v>-0.739640094488792</v>
+        <v>492</v>
+      </c>
+      <c r="B246" t="s">
+        <v>493</v>
       </c>
       <c r="C246" t="n">
-        <v>5.06243515542657</v>
+        <v>1.1472476751031</v>
       </c>
       <c r="D246" t="n">
-        <v>0.08</v>
+        <v>0.133333333333333</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>249</v>
-      </c>
-      <c r="B247" t="n">
-        <v>0.305103241666416</v>
+        <v>494</v>
+      </c>
+      <c r="B247" t="s">
+        <v>495</v>
       </c>
       <c r="C247" t="n">
-        <v>6.17976606356017</v>
+        <v>1.94950723979765</v>
       </c>
       <c r="D247" t="n">
-        <v>0.07</v>
+        <v>0.193333333333333</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>250</v>
-      </c>
-      <c r="B248" t="n">
-        <v>0.470957195785893</v>
+        <v>496</v>
+      </c>
+      <c r="B248" t="s">
+        <v>497</v>
       </c>
       <c r="C248" t="n">
-        <v>6.10377154497712</v>
+        <v>1.21419178793474</v>
       </c>
       <c r="D248" t="n">
-        <v>0.09</v>
+        <v>0.186666666666667</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>251</v>
-      </c>
-      <c r="B249" t="n">
-        <v>1.50615428189731</v>
+        <v>498</v>
+      </c>
+      <c r="B249" t="s">
+        <v>499</v>
       </c>
       <c r="C249" t="n">
-        <v>6.82457289893712</v>
+        <v>2.31547197538013</v>
       </c>
       <c r="D249" t="n">
-        <v>0.08</v>
+        <v>0.186666666666667</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>252</v>
-      </c>
-      <c r="B250" t="n">
-        <v>0.57733433597047</v>
+        <v>500</v>
+      </c>
+      <c r="B250" t="s">
+        <v>501</v>
       </c>
       <c r="C250" t="n">
-        <v>7.99770471968486</v>
+        <v>2.04210620897669</v>
       </c>
       <c r="D250" t="n">
-        <v>0.12</v>
+        <v>0.156666666666667</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>253</v>
-      </c>
-      <c r="B251" t="n">
-        <v>0.0539308292431429</v>
+        <v>502</v>
+      </c>
+      <c r="B251" t="s">
+        <v>503</v>
       </c>
       <c r="C251" t="n">
-        <v>8.93987926959099</v>
+        <v>2.63661886679891</v>
       </c>
       <c r="D251" t="n">
-        <v>0.77</v>
+        <v>0.0933333333333333</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>254</v>
-      </c>
-      <c r="B252" t="n">
-        <v>0.0884752634087604</v>
+        <v>504</v>
+      </c>
+      <c r="B252" t="s">
+        <v>505</v>
       </c>
       <c r="C252" t="n">
-        <v>4.40283378620734</v>
+        <v>2.40172772076939</v>
       </c>
       <c r="D252" t="n">
-        <v>2.19</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>255</v>
-      </c>
-      <c r="B253" t="n">
-        <v>0.087813147388438</v>
+        <v>506</v>
+      </c>
+      <c r="B253" t="s">
+        <v>507</v>
       </c>
       <c r="C253" t="n">
-        <v>3.78940520877862</v>
+        <v>0.474271380095459</v>
       </c>
       <c r="D253" t="n">
-        <v>3.65333333333333</v>
+        <v>0.0733333333333333</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>256</v>
-      </c>
-      <c r="B254" t="n">
-        <v>0.117865360393665</v>
+        <v>508</v>
+      </c>
+      <c r="B254" t="s">
+        <v>509</v>
       </c>
       <c r="C254" t="n">
-        <v>3.72416254778045</v>
+        <v>2.34134319778931</v>
       </c>
       <c r="D254" t="n">
-        <v>4.51666666666667</v>
+        <v>0.103333333333333</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>257</v>
-      </c>
-      <c r="B255" t="n">
-        <v>0.0509770160141088</v>
+        <v>510</v>
+      </c>
+      <c r="B255" t="s">
+        <v>511</v>
       </c>
       <c r="C255" t="n">
-        <v>2.07888366362248</v>
+        <v>1.6480458189811</v>
       </c>
       <c r="D255" t="n">
-        <v>4.99</v>
+        <v>0.153333333333333</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>258</v>
-      </c>
-      <c r="B256" t="n">
-        <v>0.504557011935525</v>
+        <v>512</v>
+      </c>
+      <c r="B256" t="s">
+        <v>513</v>
       </c>
       <c r="C256" t="n">
-        <v>3.24793275879642</v>
+        <v>2.18973948030445</v>
       </c>
       <c r="D256" t="n">
-        <v>5.26</v>
+        <v>0.143333333333333</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>259</v>
-      </c>
-      <c r="B257" t="n">
-        <v>0.651972563507641</v>
+        <v>514</v>
+      </c>
+      <c r="B257" t="s">
+        <v>515</v>
       </c>
       <c r="C257" t="n">
-        <v>1.59468218147047</v>
+        <v>1.99891500973628</v>
       </c>
       <c r="D257" t="n">
-        <v>5.33</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>260</v>
-      </c>
-      <c r="B258" t="n">
-        <v>0.169471435498103</v>
+        <v>516</v>
+      </c>
+      <c r="B258" t="s">
+        <v>517</v>
       </c>
       <c r="C258" t="n">
-        <v>3.12861038257033</v>
+        <v>1.58602972711712</v>
       </c>
       <c r="D258" t="n">
-        <v>5.33</v>
+        <v>0.143333333333333</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>261</v>
-      </c>
-      <c r="B259" t="n">
-        <v>0.360100408033581</v>
+        <v>518</v>
+      </c>
+      <c r="B259" t="s">
+        <v>519</v>
       </c>
       <c r="C259" t="n">
-        <v>2.54227616118001</v>
+        <v>0.860539016401773</v>
       </c>
       <c r="D259" t="n">
-        <v>5.33</v>
+        <v>0.116666666666667</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>262</v>
-      </c>
-      <c r="B260" t="n">
-        <v>0.49183851542427</v>
+        <v>520</v>
+      </c>
+      <c r="B260" t="s">
+        <v>521</v>
       </c>
       <c r="C260" t="n">
-        <v>1.68697905742654</v>
+        <v>1.95580821048011</v>
       </c>
       <c r="D260" t="n">
-        <v>5.26333333333333</v>
+        <v>0.0833333333333333</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>263</v>
-      </c>
-      <c r="B261" t="n">
-        <v>0.262199398700069</v>
+        <v>522</v>
+      </c>
+      <c r="B261" t="s">
+        <v>523</v>
       </c>
       <c r="C261" t="n">
-        <v>2.39227192961131</v>
+        <v>2.10980263228926</v>
       </c>
       <c r="D261" t="n">
-        <v>4.65</v>
+        <v>0.0866666666666667</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>264</v>
-      </c>
-      <c r="B262" t="n">
-        <v>-0.58812369388157</v>
+        <v>524</v>
+      </c>
+      <c r="B262" t="s">
+        <v>525</v>
       </c>
       <c r="C262" t="n">
-        <v>3.54925230555665</v>
+        <v>1.51453526407046</v>
       </c>
       <c r="D262" t="n">
-        <v>4.33</v>
+        <v>0.0733333333333333</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>265</v>
-      </c>
-      <c r="B263" t="n">
-        <v>-0.334036247370584</v>
+        <v>526</v>
+      </c>
+      <c r="B263" t="s">
+        <v>527</v>
       </c>
       <c r="C263" t="n">
-        <v>2.09831420300262</v>
+        <v>2.25695223954432</v>
       </c>
       <c r="D263" t="n">
-        <v>4.33</v>
+        <v>0.0933333333333333</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>266</v>
-      </c>
-      <c r="B264"/>
-      <c r="C264"/>
+        <v>528</v>
+      </c>
+      <c r="B264" t="s">
+        <v>529</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.64097694095382</v>
+      </c>
       <c r="D264" t="n">
-        <v>4.29333333333333</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>267</v>
-      </c>
-      <c r="B265"/>
-      <c r="C265"/>
+        <v>530</v>
+      </c>
+      <c r="B265" t="s">
+        <v>531</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.39680082614133</v>
+      </c>
       <c r="D265" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>532</v>
+      </c>
+      <c r="B266" t="s">
+        <v>533</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-0.219018451577213</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>534</v>
+      </c>
+      <c r="B267" t="s">
+        <v>535</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2.29167937527706</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.123333333333333</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>536</v>
+      </c>
+      <c r="B268" t="s">
+        <v>537</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1.05896176940128</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.136666666666667</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>538</v>
+      </c>
+      <c r="B269" t="s">
+        <v>539</v>
+      </c>
+      <c r="C269" t="n">
+        <v>-0.008198233280865</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>540</v>
+      </c>
+      <c r="B270" t="s">
+        <v>541</v>
+      </c>
+      <c r="C270" t="n">
+        <v>-0.348580326247827</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>542</v>
+      </c>
+      <c r="B271" t="s">
+        <v>543</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2.71090455219998</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.373333333333333</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>544</v>
+      </c>
+      <c r="B272" t="s">
+        <v>545</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1.02152480367721</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.396666666666667</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>546</v>
+      </c>
+      <c r="B273" t="s">
+        <v>547</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1.93009862768179</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>548</v>
+      </c>
+      <c r="B274" t="s">
+        <v>549</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2.03353339992631</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>550</v>
+      </c>
+      <c r="B275" t="s">
+        <v>551</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1.04501667155574</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>552</v>
+      </c>
+      <c r="B276" t="s">
+        <v>553</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2.04993141789771</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1.15333333333333</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>554</v>
+      </c>
+      <c r="B277" t="s">
+        <v>555</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2.45248105784128</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1.20333333333333</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>556</v>
+      </c>
+      <c r="B278" t="s">
+        <v>557</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2.5361489927775</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1.44666666666667</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>558</v>
+      </c>
+      <c r="B279" t="s">
+        <v>559</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2.81792327518211</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1.73666666666667</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>560</v>
+      </c>
+      <c r="B280" t="s">
+        <v>561</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1.72339101938519</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1.92333333333333</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>562</v>
+      </c>
+      <c r="B281" t="s">
+        <v>563</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1.71988046831046</v>
+      </c>
+      <c r="D281" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>564</v>
+      </c>
+      <c r="B282" t="s">
+        <v>565</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.19798293543028</v>
+      </c>
+      <c r="D282" t="n">
+        <v>2.40333333333333</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>566</v>
+      </c>
+      <c r="B283" t="s">
+        <v>567</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2.06188013864015</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2.39666666666667</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>568</v>
+      </c>
+      <c r="B284" t="s">
+        <v>569</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.26890240702195</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>570</v>
+      </c>
+      <c r="B285" t="s">
+        <v>571</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1.24192751701813</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.64333333333333</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>572</v>
+      </c>
+      <c r="B286" t="s">
+        <v>573</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1.96995835969744</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>574</v>
+      </c>
+      <c r="B287" t="s">
+        <v>575</v>
+      </c>
+      <c r="C287" t="n">
+        <v>-1.59507189798127</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>576</v>
+      </c>
+      <c r="B288" t="s">
+        <v>577</v>
+      </c>
+      <c r="C288" t="n">
+        <v>3.64631948451013</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.0933333333333333</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>578</v>
+      </c>
+      <c r="B289" t="s">
+        <v>579</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2.48534807751639</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>580</v>
+      </c>
+      <c r="B290" t="s">
+        <v>581</v>
+      </c>
+      <c r="C290" t="n">
+        <v>5.06243515542657</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>582</v>
+      </c>
+      <c r="B291" t="s">
+        <v>583</v>
+      </c>
+      <c r="C291" t="n">
+        <v>6.17976606356017</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>584</v>
+      </c>
+      <c r="B292" t="s">
+        <v>585</v>
+      </c>
+      <c r="C292" t="n">
+        <v>6.10377154497712</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>586</v>
+      </c>
+      <c r="B293" t="s">
+        <v>587</v>
+      </c>
+      <c r="C293" t="n">
+        <v>6.82457289893712</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>588</v>
+      </c>
+      <c r="B294" t="s">
+        <v>589</v>
+      </c>
+      <c r="C294" t="n">
+        <v>7.99770471968486</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>590</v>
+      </c>
+      <c r="B295" t="s">
+        <v>591</v>
+      </c>
+      <c r="C295" t="n">
+        <v>8.93987926959099</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>592</v>
+      </c>
+      <c r="B296" t="s">
+        <v>593</v>
+      </c>
+      <c r="C296" t="n">
+        <v>4.40283378620734</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>594</v>
+      </c>
+      <c r="B297" t="s">
+        <v>595</v>
+      </c>
+      <c r="C297" t="n">
+        <v>3.78940520877862</v>
+      </c>
+      <c r="D297" t="n">
+        <v>3.65333333333333</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>596</v>
+      </c>
+      <c r="B298" t="s">
+        <v>597</v>
+      </c>
+      <c r="C298" t="n">
+        <v>3.72416254778045</v>
+      </c>
+      <c r="D298" t="n">
+        <v>4.51666666666667</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>598</v>
+      </c>
+      <c r="B299" t="s">
+        <v>599</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2.07888366362248</v>
+      </c>
+      <c r="D299" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>600</v>
+      </c>
+      <c r="B300" t="s">
+        <v>601</v>
+      </c>
+      <c r="C300" t="n">
+        <v>3.24793275879642</v>
+      </c>
+      <c r="D300" t="n">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>602</v>
+      </c>
+      <c r="B301" t="s">
+        <v>603</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1.59468218147047</v>
+      </c>
+      <c r="D301" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>604</v>
+      </c>
+      <c r="B302" t="s">
+        <v>605</v>
+      </c>
+      <c r="C302" t="n">
+        <v>3.12861038257033</v>
+      </c>
+      <c r="D302" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>606</v>
+      </c>
+      <c r="B303" t="s">
+        <v>607</v>
+      </c>
+      <c r="C303" t="n">
+        <v>2.54227616118001</v>
+      </c>
+      <c r="D303" t="n">
+        <v>5.33</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>608</v>
+      </c>
+      <c r="B304" t="s">
+        <v>609</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1.68697905742654</v>
+      </c>
+      <c r="D304" t="n">
+        <v>5.26333333333333</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>610</v>
+      </c>
+      <c r="B305" t="s">
+        <v>611</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2.39227192961131</v>
+      </c>
+      <c r="D305" t="n">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>612</v>
+      </c>
+      <c r="B306" t="s">
+        <v>613</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3.54925230555665</v>
+      </c>
+      <c r="D306" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>614</v>
+      </c>
+      <c r="B307" t="s">
+        <v>615</v>
+      </c>
+      <c r="C307" t="n">
+        <v>2.09831420300262</v>
+      </c>
+      <c r="D307" t="n">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>616</v>
+      </c>
+      <c r="B308" t="s">
+        <v>617</v>
+      </c>
+      <c r="C308"/>
+      <c r="D308" t="n">
+        <v>4.29333333333333</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>618</v>
+      </c>
+      <c r="B309" t="s">
+        <v>619</v>
+      </c>
+      <c r="C309"/>
+      <c r="D309" t="n">
         <v>4.09</v>
       </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>620</v>
+      </c>
+      <c r="B310" t="s">
+        <v>621</v>
+      </c>
+      <c r="C310"/>
+      <c r="D310"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>622</v>
+      </c>
+      <c r="B311" t="s">
+        <v>623</v>
+      </c>
+      <c r="C311"/>
+      <c r="D311"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>624</v>
+      </c>
+      <c r="B312" t="s">
+        <v>625</v>
+      </c>
+      <c r="C312"/>
+      <c r="D312"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>626</v>
+      </c>
+      <c r="B313" t="s">
+        <v>627</v>
+      </c>
+      <c r="C313"/>
+      <c r="D313"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>628</v>
+      </c>
+      <c r="B314" t="s">
+        <v>629</v>
+      </c>
+      <c r="C314"/>
+      <c r="D314"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>630</v>
+      </c>
+      <c r="B315" t="s">
+        <v>631</v>
+      </c>
+      <c r="C315"/>
+      <c r="D315"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>632</v>
+      </c>
+      <c r="B316" t="s">
+        <v>633</v>
+      </c>
+      <c r="C316"/>
+      <c r="D316"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>634</v>
+      </c>
+      <c r="B317" t="s">
+        <v>635</v>
+      </c>
+      <c r="C317"/>
+      <c r="D317"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>636</v>
+      </c>
+      <c r="B318" t="s">
+        <v>637</v>
+      </c>
+      <c r="C318"/>
+      <c r="D318"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>638</v>
+      </c>
+      <c r="B319" t="s">
+        <v>639</v>
+      </c>
+      <c r="C319"/>
+      <c r="D319"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>640</v>
+      </c>
+      <c r="B320" t="s">
+        <v>641</v>
+      </c>
+      <c r="C320"/>
+      <c r="D320"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>642</v>
+      </c>
+      <c r="B321" t="s">
+        <v>643</v>
+      </c>
+      <c r="C321"/>
+      <c r="D321"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>644</v>
+      </c>
+      <c r="B322" t="s">
+        <v>645</v>
+      </c>
+      <c r="C322"/>
+      <c r="D322"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>646</v>
+      </c>
+      <c r="B323" t="s">
+        <v>647</v>
+      </c>
+      <c r="C323"/>
+      <c r="D323"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>648</v>
+      </c>
+      <c r="B324" t="s">
+        <v>649</v>
+      </c>
+      <c r="C324"/>
+      <c r="D324"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>650</v>
+      </c>
+      <c r="B325" t="s">
+        <v>651</v>
+      </c>
+      <c r="C325"/>
+      <c r="D325"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>652</v>
+      </c>
+      <c r="B326" t="s">
+        <v>653</v>
+      </c>
+      <c r="C326"/>
+      <c r="D326"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>654</v>
+      </c>
+      <c r="B327" t="s">
+        <v>655</v>
+      </c>
+      <c r="C327"/>
+      <c r="D327"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>656</v>
+      </c>
+      <c r="B328" t="s">
+        <v>657</v>
+      </c>
+      <c r="C328"/>
+      <c r="D328"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>658</v>
+      </c>
+      <c r="B329" t="s">
+        <v>659</v>
+      </c>
+      <c r="C329"/>
+      <c r="D329"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>660</v>
+      </c>
+      <c r="B330" t="s">
+        <v>661</v>
+      </c>
+      <c r="C330"/>
+      <c r="D330"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>662</v>
+      </c>
+      <c r="B331" t="s">
+        <v>663</v>
+      </c>
+      <c r="C331"/>
+      <c r="D331"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>664</v>
+      </c>
+      <c r="B332" t="s">
+        <v>665</v>
+      </c>
+      <c r="C332"/>
+      <c r="D332"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>666</v>
+      </c>
+      <c r="B333" t="s">
+        <v>667</v>
+      </c>
+      <c r="C333"/>
+      <c r="D333"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>668</v>
+      </c>
+      <c r="B334" t="s">
+        <v>669</v>
+      </c>
+      <c r="C334"/>
+      <c r="D334"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>670</v>
+      </c>
+      <c r="B335" t="s">
+        <v>671</v>
+      </c>
+      <c r="C335"/>
+      <c r="D335"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>672</v>
+      </c>
+      <c r="B336" t="s">
+        <v>673</v>
+      </c>
+      <c r="C336"/>
+      <c r="D336"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>674</v>
+      </c>
+      <c r="B337" t="s">
+        <v>675</v>
+      </c>
+      <c r="C337"/>
+      <c r="D337"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>676</v>
+      </c>
+      <c r="B338" t="s">
+        <v>677</v>
+      </c>
+      <c r="C338"/>
+      <c r="D338"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>678</v>
+      </c>
+      <c r="B339" t="s">
+        <v>679</v>
+      </c>
+      <c r="C339"/>
+      <c r="D339"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>680</v>
+      </c>
+      <c r="B340" t="s">
+        <v>681</v>
+      </c>
+      <c r="C340"/>
+      <c r="D340"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>682</v>
+      </c>
+      <c r="B341" t="s">
+        <v>683</v>
+      </c>
+      <c r="C341"/>
+      <c r="D341"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>684</v>
+      </c>
+      <c r="B342" t="s">
+        <v>685</v>
+      </c>
+      <c r="C342"/>
+      <c r="D342"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>686</v>
+      </c>
+      <c r="B343" t="s">
+        <v>687</v>
+      </c>
+      <c r="C343"/>
+      <c r="D343"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>688</v>
+      </c>
+      <c r="B344" t="s">
+        <v>689</v>
+      </c>
+      <c r="C344"/>
+      <c r="D344"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>690</v>
+      </c>
+      <c r="B345" t="s">
+        <v>691</v>
+      </c>
+      <c r="C345"/>
+      <c r="D345"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>692</v>
+      </c>
+      <c r="B346" t="s">
+        <v>693</v>
+      </c>
+      <c r="C346"/>
+      <c r="D346"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>694</v>
+      </c>
+      <c r="B347" t="s">
+        <v>695</v>
+      </c>
+      <c r="C347"/>
+      <c r="D347"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>696</v>
+      </c>
+      <c r="B348" t="s">
+        <v>697</v>
+      </c>
+      <c r="C348"/>
+      <c r="D348"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>698</v>
+      </c>
+      <c r="B349" t="s">
+        <v>699</v>
+      </c>
+      <c r="C349"/>
+      <c r="D349"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sorties/data_us.xlsx
+++ b/sorties/data_us.xlsx
@@ -6584,7 +6584,7 @@
       </c>
       <c r="C309"/>
       <c r="D309" t="n">
-        <v>4.09</v>
+        <v>3.985</v>
       </c>
     </row>
     <row r="310">
